--- a/tests/test1/output/main-recording.xlsx
+++ b/tests/test1/output/main-recording.xlsx
@@ -69,7 +69,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>VAm0</x:t>
+    <x:t>drGP</x:t>
   </x:si>
   <x:si>
     <x:t>Recorded</x:t>
@@ -85,7 +85,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>A1Om</x:t>
+    <x:t>xDJw</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -98,7 +98,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Bdzh</x:t>
+    <x:t>wTEx</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -114,7 +114,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2WCH</x:t>
+    <x:t>tyEY</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/tests/test1/output/main-recording.xlsx
+++ b/tests/test1/output/main-recording.xlsx
@@ -46,19 +46,55 @@
     <x:t>AudioStatus</x:t>
   </x:si>
   <x:si>
+    <x:t>scene1_Scene1_Part1_S494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scene1_Part1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a scene.</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>David</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ViVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Recorded</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scene1_Scene1_Part3_9MXL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scene1_Part3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAVE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Let's see if this works, shall we?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quietly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b0aX</x:t>
+  </x:si>
+  <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
   </x:si>
   <x:si>
     <x:t>Scene1_Part4</x:t>
   </x:si>
   <x:si>
-    <x:t>FRED</x:t>
-  </x:si>
-  <x:si>
     <x:t>Go right!</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">There is a choice here.
@@ -66,13 +102,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>David</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drGP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Recorded</x:t>
+    <x:t>hyEM</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -85,7 +115,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>xDJw</x:t>
+    <x:t>YiSO</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -98,7 +128,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>wTEx</x:t>
+    <x:t>Zy0S</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -114,7 +144,586 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>tyEY</x:t>
+    <x:t>tSLO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scene1_Scene1_Right_WM69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scene1_Right</x:t>
+  </x:si>
+  <x:si>
+    <x:t>You sure you want to go right?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>upset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mvm7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scene1_Scene1_Left_MIM6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scene1_Left</x:t>
+  </x:si>
+  <x:si>
+    <x:t>You sure you want to go left?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mA8L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_16U4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScene</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAURA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a line I am saying.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This comment should apply to Test Scene.
+And so should this.
+Comment for a line.
+Another comment for the same line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SETw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scratch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_FF1T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is another line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This comment goes to the voice actor.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_BQ1E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a loud line!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>loudly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fred is angry.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_IQIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glad that's over with!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vo:loud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_O037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is for all the barks.
+(1/7) This is for the one-legged version.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8wYj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_UWZ2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(2/7) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>iwh8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_1ZG8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(3/7) How about this?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UvrK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vo:soft, vo:radio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_JFG1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark4</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(5/7) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>M3Ap</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_X291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Response to Bark 4.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(...) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_L2SX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shouting</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(6/7) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pk5H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_N07F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bark6</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(7/7) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>OZBd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_7ZMT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Recording</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a recording line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KjQI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartA_U9ZN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Recording_PartA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a line hidden by a false clause.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wRQW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartB_VPX8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Recording_PartB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(1/3) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>7pM9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartB_FH4U</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(2/3) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>6IVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartB_1RQS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is also a line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(3/3) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>k5XG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_JITN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Recording_PartC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a first line about monkeys.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">A set of lines about monkeys
+(1/4) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>V4Wh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_GUS9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a second line about monkeys.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(2/4) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>HZkD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_3VZB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a third monkey line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(3/4) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>OLBu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartC_A18G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a final monkey line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(4/4) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>UX92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartD_UC9D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Recording_PartD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>al4B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartD_08WO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DXz9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_81AO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Recording_PartE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodbye!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lrJo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_JY1W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seeya!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86Hm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_QEM8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whoops!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vEFY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Recording_PartE_KABN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Responds.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_41YM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Branches</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a conversation.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AajE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_YTUY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>You're right, it is! You got a question?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_I7F9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I suppose I do.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">OPTION "I suppose I do."
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8RXF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_PACN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Really?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_60XU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I don't.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">OPTION "I don't."
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bi4R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_9ZRB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>That seems unlikely.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_49C7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anyway, cold in here isn't it.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yyAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_6B6A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>What do you want to do?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_BigRoom_9CMB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Branches_BigRoom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I want to talk about the big room.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JrNK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_BigRoom_GPMN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Well, it's big.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_SmallRoom_P8X1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Branches_SmallRoom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I want to talk about the small room.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>z87I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_SmallRoom_413C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wel, it's quite small.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sarcastic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Hub_4ZNX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Branches_Hub</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Any more questions?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XDVJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Hub_UYYD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>What colour is the sky? Green or grey?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">OPTION "What colour is the sky?"
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7pR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Hub_A048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>It's pink, obviously.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Hub_L1BZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Why are monkeys green? It's a bit weird?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">OPTION "Why are monkeys green?"
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RExl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Hub_Z1BD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grass-stains.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Bigger_TY68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Branches_Bigger</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Is there something bigger?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X89o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Bigger_MFAH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yeah, a real big thing.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Branches_Bigger_C70O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>With multiple lines.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Flow_5QGJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I am the colour of night.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6vTn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Flow_EPML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>What a load of nonsense.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Flow_HWO9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Branch 1.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OQQQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Flow_IGPY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Branch 2.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VXjF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Flow_QCX4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Branch 3.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dh6W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>branches_Flow_EEQU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>And we're back.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r2CR</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -234,8 +843,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J5" totalsRowShown="0">
-  <x:autoFilter ref="A1:J5"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J61" totalsRowShown="0">
+  <x:autoFilter ref="A1:J61"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="ID"/>
     <x:tableColumn id="2" name="BlockID"/>
@@ -540,7 +1149,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J5"/>
+  <x:dimension ref="A1:J61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -549,15 +1158,15 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="11" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="26.210625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="12.960625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="34.585625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="19.960625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="11.210625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="12.960625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="35.710625" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="10.335625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="20.210625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="36.835625" style="1" customWidth="1"/>
     <x:col min="7" max="7" width="7.460625" style="1" customWidth="1"/>
     <x:col min="8" max="8" width="11.210625" style="1" customWidth="1"/>
-    <x:col min="9" max="9" width="6.960625" style="1" customWidth="1"/>
+    <x:col min="9" max="9" width="14.335625" style="1" customWidth="1"/>
     <x:col min="10" max="10" width="13.210625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -593,7 +1202,7 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
+    <x:row r="2" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A2" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -609,116 +1218,1908 @@
       <x:c r="E2" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F2" s="5" t="s">
-        <x:v>15</x:v>
+      <x:c r="F2" s="2" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H2" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="H2" s="2" t="s">
+      <x:c r="I2" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J2" s="2" t="s">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="I2" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J2" s="2" t="s">
-        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A3" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F3" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F3" s="3" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G3" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H3" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I3" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J3" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
       <x:c r="A4" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F4" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J4" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F5" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A6" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F6" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A7" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F7" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J7" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A8" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I8" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J8" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A9" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D9" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E9" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F9" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G9" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H9" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I9" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J9" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:10" ht="54" customHeight="1" s="2" customFormat="1">
+      <x:c r="A10" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F10" s="5" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G10" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H10" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I10" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J10" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A11" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G11" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H11" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I11" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J11" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A12" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E12" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G12" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H12" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I12" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J12" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A13" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E13" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G13" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H13" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I13" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="J13" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:10" ht="27" customHeight="1" s="3" customFormat="1">
+      <x:c r="A14" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B14" s="3" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C14" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D14" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E14" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F14" s="6" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="G14" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H14" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I14" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J14" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A15" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E15" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G15" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H15" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="I15" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J15" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A16" s="3" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B16" s="3" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C16" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D16" s="3" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E16" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F16" s="3" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G16" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H16" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I16" s="3" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="J16" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A17" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E17" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G17" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H17" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I17" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J17" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A18" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E18" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G18" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H18" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I18" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J18" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A19" s="3" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B19" s="3" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C19" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D19" s="3" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E19" s="3" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F19" s="3" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G19" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H19" s="3" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="I19" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J19" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A20" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E20" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G20" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H20" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="I20" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A21" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B21" s="3" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C21" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D21" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E21" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F21" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G21" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H21" s="3" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I21" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J21" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A22" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E22" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G22" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H22" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I22" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J22" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A23" s="3" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B23" s="3" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C23" s="3" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D23" s="3" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E23" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F23" s="3" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G23" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H23" s="3" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I23" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J23" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A24" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E24" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G24" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H24" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I24" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J24" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A25" s="3" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B25" s="3" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C25" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D25" s="3" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E25" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F25" s="3" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="G25" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H25" s="3" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="I25" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J25" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
+      <x:c r="A26" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E26" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F26" s="5" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="G26" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H26" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I26" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J26" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A27" s="3" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B27" s="3" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C27" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D27" s="3" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E27" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F27" s="3" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="G27" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H27" s="3" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="I27" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J27" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A28" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E28" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G28" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H28" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="I28" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J28" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A29" s="3" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B29" s="3" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C29" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D29" s="3" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E29" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F29" s="3" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="G29" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H29" s="3" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="I29" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J29" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A30" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E30" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G30" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H30" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="I30" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J30" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A31" s="3" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B31" s="3" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C31" s="3" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D31" s="3" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E31" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F31" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G31" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H31" s="3" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="I31" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J31" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A32" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E32" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G32" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H32" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="I32" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J32" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A33" s="3" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B33" s="3" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C33" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D33" s="3" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E33" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F33" s="3" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G33" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H33" s="3" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="I33" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J33" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A34" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E34" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="G34" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H34" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="I34" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J34" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A35" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E35" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G35" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H35" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="I35" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J35" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A36" s="3" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B36" s="3" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C36" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D36" s="3" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E36" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F36" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G36" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H36" s="3" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="I36" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J36" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A37" s="3" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B37" s="3" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C37" s="3" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D37" s="3" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="E37" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F37" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G37" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H37" s="3" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="I37" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J37" s="3" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A38" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E38" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F38" s="5" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="G38" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H38" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I38" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J38" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A39" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="E39" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G39" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H39" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I39" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J39" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A40" s="3" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B40" s="3" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C40" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D40" s="3" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E40" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F40" s="6" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G40" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H40" s="3" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="I40" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J40" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A41" s="3" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B41" s="3" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C41" s="3" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D41" s="3" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E41" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F41" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G41" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H41" s="3" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="I41" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J41" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A42" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="E42" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F42" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G42" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H42" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="I42" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J42" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A43" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="E43" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G43" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H43" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="I43" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J43" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A44" s="3" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B44" s="3" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C44" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D44" s="3" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="E44" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F44" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G44" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H44" s="3" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I44" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J44" s="3" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A45" s="3" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B45" s="3" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C45" s="3" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D45" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="E45" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F45" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G45" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H45" s="3" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I45" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J45" s="3" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A46" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="E46" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G46" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H46" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="I46" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J46" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A47" s="2" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="E47" s="2" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G47" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H47" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="I47" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J47" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A48" s="3" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B48" s="3" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C48" s="3" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D48" s="3" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="E48" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F48" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G48" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H48" s="3" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="I48" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J48" s="3" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A49" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="E49" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F49" s="5" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="G49" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H49" s="2" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="I49" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J49" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A50" s="2" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="E50" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G50" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H50" s="2" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="I50" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J50" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A51" s="3" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B51" s="3" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C51" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D51" s="3" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E51" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F51" s="6" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="G51" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H51" s="3" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="I51" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J51" s="3" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A52" s="3" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B52" s="3" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C52" s="3" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D52" s="3" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="E52" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F52" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G52" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H52" s="3" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="I52" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J52" s="3" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A53" s="2" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D53" s="2" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="E53" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F53" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G53" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H53" s="2" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="I53" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J53" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A54" s="2" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D54" s="2" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E54" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F54" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G54" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H54" s="2" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="I54" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J54" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A55" s="2" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D55" s="2" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E55" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F55" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G55" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H55" s="2" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="I55" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J55" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A56" s="3" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B56" s="3" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C56" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D56" s="3" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="E56" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F56" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G56" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H56" s="3" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="I56" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J56" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A57" s="3" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B57" s="3" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C57" s="3" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D57" s="3" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E57" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F57" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G57" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H57" s="3" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="I57" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J57" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A58" s="2" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D58" s="2" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="E58" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F58" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G58" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H58" s="2" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="I58" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J58" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A59" s="3" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B59" s="3" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C59" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D59" s="3" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="E59" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F59" s="3" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G59" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H59" s="3" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="I59" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J59" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A60" s="2" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D60" s="2" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="E60" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F60" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="G60" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H60" s="2" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="I60" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J60" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A61" s="3" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B61" s="3" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C61" s="3" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D61" s="3" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="E61" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F61" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G61" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H61" s="3" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="I61" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J61" s="3" t="s">
+        <x:v>57</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/tests/test1/output/main-recording.xlsx
+++ b/tests/test1/output/main-recording.xlsx
@@ -64,7 +64,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>ViVI</x:t>
+    <x:t>mqrG</x:t>
   </x:si>
   <x:si>
     <x:t>Recorded</x:t>
@@ -85,7 +85,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>b0aX</x:t>
+    <x:t>jnBw</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -97,12 +97,11 @@
     <x:t>Go right!</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">There is a choice here.
-OPTION "Go right"
+    <x:t xml:space="preserve">OPTION "Go right"
 </x:t>
   </x:si>
   <x:si>
-    <x:t>hyEM</x:t>
+    <x:t>qidl</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -115,7 +114,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>YiSO</x:t>
+    <x:t>SUNv</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -128,7 +127,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Zy0S</x:t>
+    <x:t>D84D</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -144,7 +143,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>tSLO</x:t>
+    <x:t>EoTA</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -159,7 +158,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>Mvm7</x:t>
+    <x:t>Gcb0</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -171,7 +170,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>mA8L</x:t>
+    <x:t>Zeqp</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -186,13 +185,11 @@
     <x:t>This is a line I am saying.</x:t>
   </x:si>
   <x:si>
-    <x:t>This comment should apply to Test Scene.
-And so should this.
-Comment for a line.
+    <x:t>Comment for a line.
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>SETw</x:t>
+    <x:t>aWNi</x:t>
   </x:si>
   <x:si>
     <x:t>Scratch</x:t>
@@ -237,11 +234,11 @@
     <x:t>Bark1</x:t>
   </x:si>
   <x:si>
-    <x:t>This is for all the barks.
-(1/7) This is for the one-legged version.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8wYj</x:t>
+    <x:t xml:space="preserve">This is for all the barks.
+(1/7) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ivci</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -253,7 +250,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>iwh8</x:t>
+    <x:t>ZZCv</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -262,10 +259,10 @@
     <x:t>Bark3</x:t>
   </x:si>
   <x:si>
-    <x:t>(3/7) How about this?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UvrK</x:t>
+    <x:t xml:space="preserve">(3/7) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>gQ3M</x:t>
   </x:si>
   <x:si>
     <x:t>vo:soft, vo:radio</x:t>
@@ -280,7 +277,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>M3Ap</x:t>
+    <x:t>JpmJ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -307,7 +304,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>Pk5H</x:t>
+    <x:t>Bun9</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -319,7 +316,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>OZBd</x:t>
+    <x:t>Fken</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_7ZMT</x:t>
@@ -331,7 +328,7 @@
     <x:t>This is a recording line.</x:t>
   </x:si>
   <x:si>
-    <x:t>KjQI</x:t>
+    <x:t>QpWE</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartA_U9ZN</x:t>
@@ -343,7 +340,7 @@
     <x:t>This is a line hidden by a false clause.</x:t>
   </x:si>
   <x:si>
-    <x:t>wRQW</x:t>
+    <x:t>MQGj</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_VPX8</x:t>
@@ -358,7 +355,7 @@
     <x:t xml:space="preserve">(1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>7pM9</x:t>
+    <x:t>5hEN</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_FH4U</x:t>
@@ -367,7 +364,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>6IVI</x:t>
+    <x:t>yV9X</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_1RQS</x:t>
@@ -379,7 +376,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>k5XG</x:t>
+    <x:t>lfUb</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_JITN</x:t>
@@ -395,7 +392,7 @@
 (1/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>V4Wh</x:t>
+    <x:t>pZwi</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_GUS9</x:t>
@@ -407,7 +404,7 @@
     <x:t xml:space="preserve">(2/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>HZkD</x:t>
+    <x:t>qxob</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_3VZB</x:t>
@@ -419,7 +416,7 @@
     <x:t xml:space="preserve">(3/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>OLBu</x:t>
+    <x:t>tc8C</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_A18G</x:t>
@@ -431,7 +428,7 @@
     <x:t xml:space="preserve">(4/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>UX92</x:t>
+    <x:t>68Sc</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_UC9D</x:t>
@@ -440,13 +437,13 @@
     <x:t>Recording_PartD</x:t>
   </x:si>
   <x:si>
-    <x:t>al4B</x:t>
+    <x:t>E5ZZ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_08WO</x:t>
   </x:si>
   <x:si>
-    <x:t>DXz9</x:t>
+    <x:t>anrS</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_81AO</x:t>
@@ -458,7 +455,7 @@
     <x:t>Goodbye!</x:t>
   </x:si>
   <x:si>
-    <x:t>lrJo</x:t>
+    <x:t>pIFe</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_JY1W</x:t>
@@ -467,7 +464,7 @@
     <x:t>Seeya!</x:t>
   </x:si>
   <x:si>
-    <x:t>86Hm</x:t>
+    <x:t>Vvby</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_QEM8</x:t>
@@ -476,7 +473,7 @@
     <x:t>Whoops!</x:t>
   </x:si>
   <x:si>
-    <x:t>vEFY</x:t>
+    <x:t>sQuy</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_KABN</x:t>
@@ -494,7 +491,7 @@
     <x:t>This is a conversation.</x:t>
   </x:si>
   <x:si>
-    <x:t>AajE</x:t>
+    <x:t>yZTD</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_YTUY</x:t>
@@ -516,7 +513,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>8RXF</x:t>
+    <x:t>tQ7q</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_PACN</x:t>
@@ -535,7 +532,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Bi4R</x:t>
+    <x:t>Mtbr</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_9ZRB</x:t>
@@ -550,7 +547,7 @@
     <x:t>Anyway, cold in here isn't it.</x:t>
   </x:si>
   <x:si>
-    <x:t>yyAI</x:t>
+    <x:t>lMbn</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_6B6A</x:t>
@@ -568,7 +565,7 @@
     <x:t>I want to talk about the big room.</x:t>
   </x:si>
   <x:si>
-    <x:t>JrNK</x:t>
+    <x:t>wRVG</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_BigRoom_GPMN</x:t>
@@ -586,7 +583,7 @@
     <x:t>I want to talk about the small room.</x:t>
   </x:si>
   <x:si>
-    <x:t>z87I</x:t>
+    <x:t>NVPq</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_SmallRoom_413C</x:t>
@@ -607,7 +604,7 @@
     <x:t>Any more questions?</x:t>
   </x:si>
   <x:si>
-    <x:t>XDVJ</x:t>
+    <x:t>LUnl</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_UYYD</x:t>
@@ -620,7 +617,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>7pR2</x:t>
+    <x:t>hiPf</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_A048</x:t>
@@ -639,7 +636,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>RExl</x:t>
+    <x:t>ShN2</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_Z1BD</x:t>
@@ -657,7 +654,7 @@
     <x:t>Is there something bigger?</x:t>
   </x:si>
   <x:si>
-    <x:t>X89o</x:t>
+    <x:t>6hRb</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Bigger_MFAH</x:t>
@@ -681,7 +678,7 @@
     <x:t>I am the colour of night.</x:t>
   </x:si>
   <x:si>
-    <x:t>6vTn</x:t>
+    <x:t>s5iM</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EPML</x:t>
@@ -696,7 +693,7 @@
     <x:t>Branch 1.</x:t>
   </x:si>
   <x:si>
-    <x:t>OQQQ</x:t>
+    <x:t>cpha</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_IGPY</x:t>
@@ -705,7 +702,7 @@
     <x:t>Branch 2.</x:t>
   </x:si>
   <x:si>
-    <x:t>VXjF</x:t>
+    <x:t>qeo2</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_QCX4</x:t>
@@ -714,7 +711,7 @@
     <x:t>Branch 3.</x:t>
   </x:si>
   <x:si>
-    <x:t>dh6W</x:t>
+    <x:t>G4JV</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EEQU</x:t>
@@ -723,7 +720,7 @@
     <x:t>And we're back.</x:t>
   </x:si>
   <x:si>
-    <x:t>r2CR</x:t>
+    <x:t>TFED</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1163,7 +1160,7 @@
     <x:col min="3" max="3" width="11.210625" style="1" customWidth="1"/>
     <x:col min="4" max="4" width="35.710625" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="10.335625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="36.835625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="32.960625" style="1" customWidth="1"/>
     <x:col min="7" max="7" width="7.460625" style="1" customWidth="1"/>
     <x:col min="8" max="8" width="11.210625" style="1" customWidth="1"/>
     <x:col min="9" max="9" width="14.335625" style="1" customWidth="1"/>
@@ -1266,7 +1263,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
+    <x:row r="4" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A4" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -1458,7 +1455,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:10" ht="54" customHeight="1" s="2" customFormat="1">
+    <x:row r="10" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
       <x:c r="A10" s="2" t="s">
         <x:v>51</x:v>
       </x:c>

--- a/tests/test1/output/main-recording.xlsx
+++ b/tests/test1/output/main-recording.xlsx
@@ -64,7 +64,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>mqrG</x:t>
+    <x:t>C0we</x:t>
   </x:si>
   <x:si>
     <x:t>Recorded</x:t>
@@ -85,7 +85,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>jnBw</x:t>
+    <x:t>XWzG</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -101,7 +101,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>qidl</x:t>
+    <x:t>Ybb2</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -114,7 +114,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>SUNv</x:t>
+    <x:t>HKGk</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -127,7 +127,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>D84D</x:t>
+    <x:t>Sh3Q</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -143,7 +143,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>EoTA</x:t>
+    <x:t>pxHZ</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -158,7 +158,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>Gcb0</x:t>
+    <x:t>AmGD</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -170,7 +170,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>Zeqp</x:t>
+    <x:t>fvYr</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -189,7 +189,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>aWNi</x:t>
+    <x:t>mt8K</x:t>
   </x:si>
   <x:si>
     <x:t>Scratch</x:t>
@@ -238,7 +238,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>Ivci</x:t>
+    <x:t>OFVv</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -250,7 +250,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>ZZCv</x:t>
+    <x:t>RueP</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -262,7 +262,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>gQ3M</x:t>
+    <x:t>HXmO</x:t>
   </x:si>
   <x:si>
     <x:t>vo:soft, vo:radio</x:t>
@@ -277,7 +277,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>JpmJ</x:t>
+    <x:t>USeo</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -304,7 +304,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>Bun9</x:t>
+    <x:t>4kY0</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -316,7 +316,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>Fken</x:t>
+    <x:t>P4EH</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_7ZMT</x:t>
@@ -328,7 +328,7 @@
     <x:t>This is a recording line.</x:t>
   </x:si>
   <x:si>
-    <x:t>QpWE</x:t>
+    <x:t>WLo1</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartA_U9ZN</x:t>
@@ -340,7 +340,7 @@
     <x:t>This is a line hidden by a false clause.</x:t>
   </x:si>
   <x:si>
-    <x:t>MQGj</x:t>
+    <x:t>8sXy</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_VPX8</x:t>
@@ -355,7 +355,7 @@
     <x:t xml:space="preserve">(1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>5hEN</x:t>
+    <x:t>tjx4</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_FH4U</x:t>
@@ -364,7 +364,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>yV9X</x:t>
+    <x:t>160K</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_1RQS</x:t>
@@ -376,7 +376,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>lfUb</x:t>
+    <x:t>fLoy</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_JITN</x:t>
@@ -392,7 +392,7 @@
 (1/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>pZwi</x:t>
+    <x:t>5Whw</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_GUS9</x:t>
@@ -404,7 +404,7 @@
     <x:t xml:space="preserve">(2/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>qxob</x:t>
+    <x:t>IZEZ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_3VZB</x:t>
@@ -416,7 +416,7 @@
     <x:t xml:space="preserve">(3/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>tc8C</x:t>
+    <x:t>u93M</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_A18G</x:t>
@@ -428,7 +428,7 @@
     <x:t xml:space="preserve">(4/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>68Sc</x:t>
+    <x:t>Lod8</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_UC9D</x:t>
@@ -437,13 +437,13 @@
     <x:t>Recording_PartD</x:t>
   </x:si>
   <x:si>
-    <x:t>E5ZZ</x:t>
+    <x:t>JsZd</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_08WO</x:t>
   </x:si>
   <x:si>
-    <x:t>anrS</x:t>
+    <x:t>QAMU</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_81AO</x:t>
@@ -455,7 +455,7 @@
     <x:t>Goodbye!</x:t>
   </x:si>
   <x:si>
-    <x:t>pIFe</x:t>
+    <x:t>zce2</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_JY1W</x:t>
@@ -464,7 +464,7 @@
     <x:t>Seeya!</x:t>
   </x:si>
   <x:si>
-    <x:t>Vvby</x:t>
+    <x:t>1SpY</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_QEM8</x:t>
@@ -473,7 +473,7 @@
     <x:t>Whoops!</x:t>
   </x:si>
   <x:si>
-    <x:t>sQuy</x:t>
+    <x:t>jZbE</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_KABN</x:t>
@@ -491,7 +491,7 @@
     <x:t>This is a conversation.</x:t>
   </x:si>
   <x:si>
-    <x:t>yZTD</x:t>
+    <x:t>JYwS</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_YTUY</x:t>
@@ -513,7 +513,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>tQ7q</x:t>
+    <x:t>ADPB</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_PACN</x:t>
@@ -532,7 +532,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Mtbr</x:t>
+    <x:t>qO8z</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_9ZRB</x:t>
@@ -547,7 +547,7 @@
     <x:t>Anyway, cold in here isn't it.</x:t>
   </x:si>
   <x:si>
-    <x:t>lMbn</x:t>
+    <x:t>DIaz</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_6B6A</x:t>
@@ -565,7 +565,7 @@
     <x:t>I want to talk about the big room.</x:t>
   </x:si>
   <x:si>
-    <x:t>wRVG</x:t>
+    <x:t>jVVR</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_BigRoom_GPMN</x:t>
@@ -583,7 +583,7 @@
     <x:t>I want to talk about the small room.</x:t>
   </x:si>
   <x:si>
-    <x:t>NVPq</x:t>
+    <x:t>Vv8j</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_SmallRoom_413C</x:t>
@@ -604,7 +604,7 @@
     <x:t>Any more questions?</x:t>
   </x:si>
   <x:si>
-    <x:t>LUnl</x:t>
+    <x:t>C2nI</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_UYYD</x:t>
@@ -617,7 +617,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>hiPf</x:t>
+    <x:t>CROF</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_A048</x:t>
@@ -636,7 +636,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>ShN2</x:t>
+    <x:t>2Qsx</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_Z1BD</x:t>
@@ -654,7 +654,7 @@
     <x:t>Is there something bigger?</x:t>
   </x:si>
   <x:si>
-    <x:t>6hRb</x:t>
+    <x:t>SJs5</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Bigger_MFAH</x:t>
@@ -678,7 +678,7 @@
     <x:t>I am the colour of night.</x:t>
   </x:si>
   <x:si>
-    <x:t>s5iM</x:t>
+    <x:t>fJMF</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EPML</x:t>
@@ -693,7 +693,7 @@
     <x:t>Branch 1.</x:t>
   </x:si>
   <x:si>
-    <x:t>cpha</x:t>
+    <x:t>lJ7z</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_IGPY</x:t>
@@ -702,7 +702,7 @@
     <x:t>Branch 2.</x:t>
   </x:si>
   <x:si>
-    <x:t>qeo2</x:t>
+    <x:t>6fvy</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_QCX4</x:t>
@@ -711,7 +711,7 @@
     <x:t>Branch 3.</x:t>
   </x:si>
   <x:si>
-    <x:t>G4JV</x:t>
+    <x:t>Bmd5</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EEQU</x:t>
@@ -720,7 +720,7 @@
     <x:t>And we're back.</x:t>
   </x:si>
   <x:si>
-    <x:t>TFED</x:t>
+    <x:t>E3wK</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/tests/test1/output/main-recording.xlsx
+++ b/tests/test1/output/main-recording.xlsx
@@ -64,7 +64,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>C0we</x:t>
+    <x:t>OhHQ</x:t>
   </x:si>
   <x:si>
     <x:t>Recorded</x:t>
@@ -85,7 +85,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>XWzG</x:t>
+    <x:t>nclm</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -101,7 +101,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Ybb2</x:t>
+    <x:t>D2th</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -114,7 +114,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>HKGk</x:t>
+    <x:t>JFUC</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -127,7 +127,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Sh3Q</x:t>
+    <x:t>QNYz</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -143,7 +143,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>pxHZ</x:t>
+    <x:t>0k3Z</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -158,7 +158,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>AmGD</x:t>
+    <x:t>PWyz</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -170,7 +170,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>fvYr</x:t>
+    <x:t>nitE</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -189,7 +189,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>mt8K</x:t>
+    <x:t>kMK7</x:t>
   </x:si>
   <x:si>
     <x:t>Scratch</x:t>
@@ -238,7 +238,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>OFVv</x:t>
+    <x:t>ecfI</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -250,7 +250,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>RueP</x:t>
+    <x:t>JmRQ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -262,7 +262,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>HXmO</x:t>
+    <x:t>4w0N</x:t>
   </x:si>
   <x:si>
     <x:t>vo:soft, vo:radio</x:t>
@@ -277,7 +277,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>USeo</x:t>
+    <x:t>9GKb</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -304,7 +304,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>4kY0</x:t>
+    <x:t>10zC</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -316,7 +316,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>P4EH</x:t>
+    <x:t>vdQu</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_7ZMT</x:t>
@@ -328,7 +328,7 @@
     <x:t>This is a recording line.</x:t>
   </x:si>
   <x:si>
-    <x:t>WLo1</x:t>
+    <x:t>44tN</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartA_U9ZN</x:t>
@@ -340,7 +340,7 @@
     <x:t>This is a line hidden by a false clause.</x:t>
   </x:si>
   <x:si>
-    <x:t>8sXy</x:t>
+    <x:t>vbL0</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_VPX8</x:t>
@@ -355,7 +355,7 @@
     <x:t xml:space="preserve">(1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>tjx4</x:t>
+    <x:t>rclH</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_FH4U</x:t>
@@ -364,7 +364,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>160K</x:t>
+    <x:t>3avX</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_1RQS</x:t>
@@ -376,7 +376,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>fLoy</x:t>
+    <x:t>ak9g</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_JITN</x:t>
@@ -392,7 +392,7 @@
 (1/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>5Whw</x:t>
+    <x:t>dWrP</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_GUS9</x:t>
@@ -404,7 +404,7 @@
     <x:t xml:space="preserve">(2/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>IZEZ</x:t>
+    <x:t>oKQv</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_3VZB</x:t>
@@ -416,7 +416,7 @@
     <x:t xml:space="preserve">(3/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>u93M</x:t>
+    <x:t>K3dT</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_A18G</x:t>
@@ -428,7 +428,7 @@
     <x:t xml:space="preserve">(4/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>Lod8</x:t>
+    <x:t>86MY</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_UC9D</x:t>
@@ -437,13 +437,13 @@
     <x:t>Recording_PartD</x:t>
   </x:si>
   <x:si>
-    <x:t>JsZd</x:t>
+    <x:t>B8Oc</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_08WO</x:t>
   </x:si>
   <x:si>
-    <x:t>QAMU</x:t>
+    <x:t>RBTG</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_81AO</x:t>
@@ -455,7 +455,7 @@
     <x:t>Goodbye!</x:t>
   </x:si>
   <x:si>
-    <x:t>zce2</x:t>
+    <x:t>a7Xy</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_JY1W</x:t>
@@ -464,7 +464,7 @@
     <x:t>Seeya!</x:t>
   </x:si>
   <x:si>
-    <x:t>1SpY</x:t>
+    <x:t>zzHC</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_QEM8</x:t>
@@ -473,7 +473,7 @@
     <x:t>Whoops!</x:t>
   </x:si>
   <x:si>
-    <x:t>jZbE</x:t>
+    <x:t>mKpa</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_KABN</x:t>
@@ -491,7 +491,7 @@
     <x:t>This is a conversation.</x:t>
   </x:si>
   <x:si>
-    <x:t>JYwS</x:t>
+    <x:t>mxtg</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_YTUY</x:t>
@@ -513,7 +513,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>ADPB</x:t>
+    <x:t>tBXh</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_PACN</x:t>
@@ -532,7 +532,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>qO8z</x:t>
+    <x:t>D0vq</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_9ZRB</x:t>
@@ -547,7 +547,7 @@
     <x:t>Anyway, cold in here isn't it.</x:t>
   </x:si>
   <x:si>
-    <x:t>DIaz</x:t>
+    <x:t>EwkS</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_6B6A</x:t>
@@ -565,7 +565,7 @@
     <x:t>I want to talk about the big room.</x:t>
   </x:si>
   <x:si>
-    <x:t>jVVR</x:t>
+    <x:t>0OHN</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_BigRoom_GPMN</x:t>
@@ -583,7 +583,7 @@
     <x:t>I want to talk about the small room.</x:t>
   </x:si>
   <x:si>
-    <x:t>Vv8j</x:t>
+    <x:t>lrKl</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_SmallRoom_413C</x:t>
@@ -604,7 +604,7 @@
     <x:t>Any more questions?</x:t>
   </x:si>
   <x:si>
-    <x:t>C2nI</x:t>
+    <x:t>vu9c</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_UYYD</x:t>
@@ -617,7 +617,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>CROF</x:t>
+    <x:t>CmDv</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_A048</x:t>
@@ -636,7 +636,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2Qsx</x:t>
+    <x:t>p85p</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_Z1BD</x:t>
@@ -654,7 +654,7 @@
     <x:t>Is there something bigger?</x:t>
   </x:si>
   <x:si>
-    <x:t>SJs5</x:t>
+    <x:t>RwXH</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Bigger_MFAH</x:t>
@@ -678,7 +678,7 @@
     <x:t>I am the colour of night.</x:t>
   </x:si>
   <x:si>
-    <x:t>fJMF</x:t>
+    <x:t>bSwY</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EPML</x:t>
@@ -693,7 +693,7 @@
     <x:t>Branch 1.</x:t>
   </x:si>
   <x:si>
-    <x:t>lJ7z</x:t>
+    <x:t>0g6w</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_IGPY</x:t>
@@ -702,7 +702,7 @@
     <x:t>Branch 2.</x:t>
   </x:si>
   <x:si>
-    <x:t>6fvy</x:t>
+    <x:t>X3jJ</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_QCX4</x:t>
@@ -711,7 +711,7 @@
     <x:t>Branch 3.</x:t>
   </x:si>
   <x:si>
-    <x:t>Bmd5</x:t>
+    <x:t>D6Bb</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EEQU</x:t>
@@ -720,7 +720,7 @@
     <x:t>And we're back.</x:t>
   </x:si>
   <x:si>
-    <x:t>E3wK</x:t>
+    <x:t>Ed2a</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/tests/test1/output/main-recording.xlsx
+++ b/tests/test1/output/main-recording.xlsx
@@ -64,7 +64,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>OhHQ</x:t>
+    <x:t>Uboh</x:t>
   </x:si>
   <x:si>
     <x:t>Recorded</x:t>
@@ -85,7 +85,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>nclm</x:t>
+    <x:t>h2eg</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -101,7 +101,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>D2th</x:t>
+    <x:t>HLVR</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -114,7 +114,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>JFUC</x:t>
+    <x:t>qCE6</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -127,7 +127,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>QNYz</x:t>
+    <x:t>1Y8A</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -143,7 +143,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>0k3Z</x:t>
+    <x:t>Ry2W</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -158,7 +158,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>PWyz</x:t>
+    <x:t>Swb0</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -170,7 +170,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>nitE</x:t>
+    <x:t>GjFV</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -189,7 +189,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>kMK7</x:t>
+    <x:t>Ibtw</x:t>
   </x:si>
   <x:si>
     <x:t>Scratch</x:t>
@@ -238,7 +238,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>ecfI</x:t>
+    <x:t>w0Sk</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -250,7 +250,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>JmRQ</x:t>
+    <x:t>5Cz6</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -262,7 +262,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>4w0N</x:t>
+    <x:t>YnCs</x:t>
   </x:si>
   <x:si>
     <x:t>vo:soft, vo:radio</x:t>
@@ -277,7 +277,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>9GKb</x:t>
+    <x:t>7ASK</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -304,7 +304,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>10zC</x:t>
+    <x:t>zuUX</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -316,7 +316,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>vdQu</x:t>
+    <x:t>MK6X</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_7ZMT</x:t>
@@ -328,7 +328,7 @@
     <x:t>This is a recording line.</x:t>
   </x:si>
   <x:si>
-    <x:t>44tN</x:t>
+    <x:t>i0Kg</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartA_U9ZN</x:t>
@@ -340,7 +340,7 @@
     <x:t>This is a line hidden by a false clause.</x:t>
   </x:si>
   <x:si>
-    <x:t>vbL0</x:t>
+    <x:t>FaBu</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_VPX8</x:t>
@@ -355,7 +355,7 @@
     <x:t xml:space="preserve">(1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>rclH</x:t>
+    <x:t>6ypN</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_FH4U</x:t>
@@ -364,7 +364,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>3avX</x:t>
+    <x:t>qtLT</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_1RQS</x:t>
@@ -376,7 +376,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>ak9g</x:t>
+    <x:t>sYCw</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_JITN</x:t>
@@ -392,7 +392,7 @@
 (1/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>dWrP</x:t>
+    <x:t>M4ZR</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_GUS9</x:t>
@@ -404,7 +404,7 @@
     <x:t xml:space="preserve">(2/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>oKQv</x:t>
+    <x:t>33ji</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_3VZB</x:t>
@@ -416,7 +416,7 @@
     <x:t xml:space="preserve">(3/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>K3dT</x:t>
+    <x:t>W7YK</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_A18G</x:t>
@@ -428,7 +428,7 @@
     <x:t xml:space="preserve">(4/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>86MY</x:t>
+    <x:t>sn1B</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_UC9D</x:t>
@@ -437,13 +437,13 @@
     <x:t>Recording_PartD</x:t>
   </x:si>
   <x:si>
-    <x:t>B8Oc</x:t>
+    <x:t>zPtx</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_08WO</x:t>
   </x:si>
   <x:si>
-    <x:t>RBTG</x:t>
+    <x:t>f8LK</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_81AO</x:t>
@@ -455,7 +455,7 @@
     <x:t>Goodbye!</x:t>
   </x:si>
   <x:si>
-    <x:t>a7Xy</x:t>
+    <x:t>pINk</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_JY1W</x:t>
@@ -464,7 +464,7 @@
     <x:t>Seeya!</x:t>
   </x:si>
   <x:si>
-    <x:t>zzHC</x:t>
+    <x:t>ONfP</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_QEM8</x:t>
@@ -473,7 +473,7 @@
     <x:t>Whoops!</x:t>
   </x:si>
   <x:si>
-    <x:t>mKpa</x:t>
+    <x:t>9Y1E</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_KABN</x:t>
@@ -491,7 +491,7 @@
     <x:t>This is a conversation.</x:t>
   </x:si>
   <x:si>
-    <x:t>mxtg</x:t>
+    <x:t>C2h0</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_YTUY</x:t>
@@ -513,7 +513,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>tBXh</x:t>
+    <x:t>6E7M</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_PACN</x:t>
@@ -532,7 +532,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>D0vq</x:t>
+    <x:t>2HPo</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_9ZRB</x:t>
@@ -547,7 +547,7 @@
     <x:t>Anyway, cold in here isn't it.</x:t>
   </x:si>
   <x:si>
-    <x:t>EwkS</x:t>
+    <x:t>bhDy</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_6B6A</x:t>
@@ -565,7 +565,7 @@
     <x:t>I want to talk about the big room.</x:t>
   </x:si>
   <x:si>
-    <x:t>0OHN</x:t>
+    <x:t>ORi7</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_BigRoom_GPMN</x:t>
@@ -583,7 +583,7 @@
     <x:t>I want to talk about the small room.</x:t>
   </x:si>
   <x:si>
-    <x:t>lrKl</x:t>
+    <x:t>0rPJ</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_SmallRoom_413C</x:t>
@@ -604,7 +604,7 @@
     <x:t>Any more questions?</x:t>
   </x:si>
   <x:si>
-    <x:t>vu9c</x:t>
+    <x:t>1Ysb</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_UYYD</x:t>
@@ -617,7 +617,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>CmDv</x:t>
+    <x:t>uRBE</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_A048</x:t>
@@ -636,7 +636,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>p85p</x:t>
+    <x:t>xoT7</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_Z1BD</x:t>
@@ -654,7 +654,7 @@
     <x:t>Is there something bigger?</x:t>
   </x:si>
   <x:si>
-    <x:t>RwXH</x:t>
+    <x:t>HgC0</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Bigger_MFAH</x:t>
@@ -678,7 +678,7 @@
     <x:t>I am the colour of night.</x:t>
   </x:si>
   <x:si>
-    <x:t>bSwY</x:t>
+    <x:t>w4KQ</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EPML</x:t>
@@ -693,7 +693,7 @@
     <x:t>Branch 1.</x:t>
   </x:si>
   <x:si>
-    <x:t>0g6w</x:t>
+    <x:t>qdWm</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_IGPY</x:t>
@@ -702,7 +702,7 @@
     <x:t>Branch 2.</x:t>
   </x:si>
   <x:si>
-    <x:t>X3jJ</x:t>
+    <x:t>p7nG</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_QCX4</x:t>
@@ -711,7 +711,7 @@
     <x:t>Branch 3.</x:t>
   </x:si>
   <x:si>
-    <x:t>D6Bb</x:t>
+    <x:t>73iL</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EEQU</x:t>
@@ -720,7 +720,7 @@
     <x:t>And we're back.</x:t>
   </x:si>
   <x:si>
-    <x:t>Ed2a</x:t>
+    <x:t>7nV5</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/tests/test1/output/main-recording.xlsx
+++ b/tests/test1/output/main-recording.xlsx
@@ -64,7 +64,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>Uboh</x:t>
+    <x:t>8OJt</x:t>
   </x:si>
   <x:si>
     <x:t>Recorded</x:t>
@@ -85,7 +85,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>h2eg</x:t>
+    <x:t>qOQE</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -101,7 +101,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>HLVR</x:t>
+    <x:t>fLHm</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -114,7 +114,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>qCE6</x:t>
+    <x:t>dnRa</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -127,7 +127,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>1Y8A</x:t>
+    <x:t>nfMM</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -143,7 +143,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Ry2W</x:t>
+    <x:t>xdEk</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -158,7 +158,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>Swb0</x:t>
+    <x:t>dpO2</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -170,7 +170,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>GjFV</x:t>
+    <x:t>OH56</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -189,7 +189,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>Ibtw</x:t>
+    <x:t>c4at</x:t>
   </x:si>
   <x:si>
     <x:t>Scratch</x:t>
@@ -238,7 +238,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>w0Sk</x:t>
+    <x:t>VTf8</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -250,7 +250,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>5Cz6</x:t>
+    <x:t>7223</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -262,7 +262,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>YnCs</x:t>
+    <x:t>TaUR</x:t>
   </x:si>
   <x:si>
     <x:t>vo:soft, vo:radio</x:t>
@@ -277,7 +277,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>7ASK</x:t>
+    <x:t>8UAv</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -304,7 +304,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>zuUX</x:t>
+    <x:t>NaKV</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -316,7 +316,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>MK6X</x:t>
+    <x:t>SIMH</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_7ZMT</x:t>
@@ -328,7 +328,7 @@
     <x:t>This is a recording line.</x:t>
   </x:si>
   <x:si>
-    <x:t>i0Kg</x:t>
+    <x:t>sVQI</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartA_U9ZN</x:t>
@@ -340,7 +340,7 @@
     <x:t>This is a line hidden by a false clause.</x:t>
   </x:si>
   <x:si>
-    <x:t>FaBu</x:t>
+    <x:t>24M5</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_VPX8</x:t>
@@ -355,7 +355,7 @@
     <x:t xml:space="preserve">(1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>6ypN</x:t>
+    <x:t>yu22</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_FH4U</x:t>
@@ -364,7 +364,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>qtLT</x:t>
+    <x:t>pTQd</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_1RQS</x:t>
@@ -376,7 +376,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>sYCw</x:t>
+    <x:t>i2qy</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_JITN</x:t>
@@ -392,7 +392,7 @@
 (1/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>M4ZR</x:t>
+    <x:t>DAwt</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_GUS9</x:t>
@@ -404,7 +404,7 @@
     <x:t xml:space="preserve">(2/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>33ji</x:t>
+    <x:t>UhT9</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_3VZB</x:t>
@@ -416,7 +416,7 @@
     <x:t xml:space="preserve">(3/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>W7YK</x:t>
+    <x:t>uChz</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_A18G</x:t>
@@ -428,7 +428,7 @@
     <x:t xml:space="preserve">(4/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>sn1B</x:t>
+    <x:t>sLhz</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_UC9D</x:t>
@@ -437,13 +437,13 @@
     <x:t>Recording_PartD</x:t>
   </x:si>
   <x:si>
-    <x:t>zPtx</x:t>
+    <x:t>xflq</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_08WO</x:t>
   </x:si>
   <x:si>
-    <x:t>f8LK</x:t>
+    <x:t>KzlE</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_81AO</x:t>
@@ -455,7 +455,7 @@
     <x:t>Goodbye!</x:t>
   </x:si>
   <x:si>
-    <x:t>pINk</x:t>
+    <x:t>jb91</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_JY1W</x:t>
@@ -464,7 +464,7 @@
     <x:t>Seeya!</x:t>
   </x:si>
   <x:si>
-    <x:t>ONfP</x:t>
+    <x:t>uDXI</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_QEM8</x:t>
@@ -473,7 +473,7 @@
     <x:t>Whoops!</x:t>
   </x:si>
   <x:si>
-    <x:t>9Y1E</x:t>
+    <x:t>EIV6</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_KABN</x:t>
@@ -491,7 +491,7 @@
     <x:t>This is a conversation.</x:t>
   </x:si>
   <x:si>
-    <x:t>C2h0</x:t>
+    <x:t>rCUF</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_YTUY</x:t>
@@ -513,7 +513,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>6E7M</x:t>
+    <x:t>L2HM</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_PACN</x:t>
@@ -532,7 +532,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2HPo</x:t>
+    <x:t>wjBF</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_9ZRB</x:t>
@@ -547,7 +547,7 @@
     <x:t>Anyway, cold in here isn't it.</x:t>
   </x:si>
   <x:si>
-    <x:t>bhDy</x:t>
+    <x:t>VXwb</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_6B6A</x:t>
@@ -565,7 +565,7 @@
     <x:t>I want to talk about the big room.</x:t>
   </x:si>
   <x:si>
-    <x:t>ORi7</x:t>
+    <x:t>NazT</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_BigRoom_GPMN</x:t>
@@ -583,7 +583,7 @@
     <x:t>I want to talk about the small room.</x:t>
   </x:si>
   <x:si>
-    <x:t>0rPJ</x:t>
+    <x:t>rO2T</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_SmallRoom_413C</x:t>
@@ -604,7 +604,7 @@
     <x:t>Any more questions?</x:t>
   </x:si>
   <x:si>
-    <x:t>1Ysb</x:t>
+    <x:t>uTuT</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_UYYD</x:t>
@@ -617,7 +617,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>uRBE</x:t>
+    <x:t>cVmB</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_A048</x:t>
@@ -636,7 +636,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>xoT7</x:t>
+    <x:t>C01P</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_Z1BD</x:t>
@@ -654,7 +654,7 @@
     <x:t>Is there something bigger?</x:t>
   </x:si>
   <x:si>
-    <x:t>HgC0</x:t>
+    <x:t>5BlO</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Bigger_MFAH</x:t>
@@ -678,7 +678,7 @@
     <x:t>I am the colour of night.</x:t>
   </x:si>
   <x:si>
-    <x:t>w4KQ</x:t>
+    <x:t>8lWY</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EPML</x:t>
@@ -693,7 +693,7 @@
     <x:t>Branch 1.</x:t>
   </x:si>
   <x:si>
-    <x:t>qdWm</x:t>
+    <x:t>1KUL</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_IGPY</x:t>
@@ -702,7 +702,7 @@
     <x:t>Branch 2.</x:t>
   </x:si>
   <x:si>
-    <x:t>p7nG</x:t>
+    <x:t>2zd2</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_QCX4</x:t>
@@ -711,7 +711,7 @@
     <x:t>Branch 3.</x:t>
   </x:si>
   <x:si>
-    <x:t>73iL</x:t>
+    <x:t>GOw8</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EEQU</x:t>
@@ -720,7 +720,7 @@
     <x:t>And we're back.</x:t>
   </x:si>
   <x:si>
-    <x:t>7nV5</x:t>
+    <x:t>bae9</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/tests/test1/output/main-recording.xlsx
+++ b/tests/test1/output/main-recording.xlsx
@@ -65,7 +65,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>3zjn</x:t>
+    <x:t>oKmf</x:t>
   </x:si>
   <x:si>
     <x:t>Scratch</x:t>
@@ -120,7 +120,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>9zI8</x:t>
+    <x:t>EWWw</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -132,7 +132,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>3N9u</x:t>
+    <x:t>fkRB</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -144,7 +144,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>IsM1</x:t>
+    <x:t>jw60</x:t>
   </x:si>
   <x:si>
     <x:t>vo:soft, vo:radio</x:t>
@@ -159,7 +159,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>kfUZ</x:t>
+    <x:t>n0GD</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -186,7 +186,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>KZ97</x:t>
+    <x:t>ScZx</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -198,7 +198,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>muSm</x:t>
+    <x:t>0HuQ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_7ZMT</x:t>
@@ -210,7 +210,7 @@
     <x:t>This is a recording line.</x:t>
   </x:si>
   <x:si>
-    <x:t>hVmO</x:t>
+    <x:t>Fph3</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartA_U9ZN</x:t>
@@ -222,7 +222,7 @@
     <x:t>This is a line hidden by a false clause.</x:t>
   </x:si>
   <x:si>
-    <x:t>vTZz</x:t>
+    <x:t>5hE2</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_VPX8</x:t>
@@ -237,7 +237,7 @@
     <x:t xml:space="preserve">(1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>OWMg</x:t>
+    <x:t>5PeT</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_FH4U</x:t>
@@ -246,7 +246,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>9n8S</x:t>
+    <x:t>9a3L</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_1RQS</x:t>
@@ -258,7 +258,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>XQLH</x:t>
+    <x:t>wPIk</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_JITN</x:t>
@@ -274,7 +274,7 @@
 (1/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>we9i</x:t>
+    <x:t>N2nj</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_GUS9</x:t>
@@ -286,7 +286,7 @@
     <x:t xml:space="preserve">(2/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>TSPT</x:t>
+    <x:t>OYCT</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_3VZB</x:t>
@@ -298,7 +298,7 @@
     <x:t xml:space="preserve">(3/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>RMKS</x:t>
+    <x:t>Rqfr</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_A18G</x:t>
@@ -310,7 +310,7 @@
     <x:t xml:space="preserve">(4/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>8bAi</x:t>
+    <x:t>j2Eo</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_UC9D</x:t>
@@ -319,13 +319,13 @@
     <x:t>Recording_PartD</x:t>
   </x:si>
   <x:si>
-    <x:t>qANb</x:t>
+    <x:t>Vv9k</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_08WO</x:t>
   </x:si>
   <x:si>
-    <x:t>Hxzf</x:t>
+    <x:t>EDuz</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_81AO</x:t>
@@ -337,7 +337,7 @@
     <x:t>Goodbye!</x:t>
   </x:si>
   <x:si>
-    <x:t>OWWV</x:t>
+    <x:t>17Dg</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_JY1W</x:t>
@@ -346,7 +346,7 @@
     <x:t>Seeya!</x:t>
   </x:si>
   <x:si>
-    <x:t>dIsI</x:t>
+    <x:t>1xIF</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_QEM8</x:t>
@@ -355,7 +355,7 @@
     <x:t>Whoops!</x:t>
   </x:si>
   <x:si>
-    <x:t>c2w8</x:t>
+    <x:t>bGx0</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_KABN</x:t>
@@ -373,7 +373,7 @@
     <x:t>This is a scene.</x:t>
   </x:si>
   <x:si>
-    <x:t>ub09</x:t>
+    <x:t>ugeS</x:t>
   </x:si>
   <x:si>
     <x:t>Recorded</x:t>
@@ -394,7 +394,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>ILBj</x:t>
+    <x:t>rMi4</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -410,7 +410,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>bBEF</x:t>
+    <x:t>Iu8v</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -423,7 +423,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>xVw4</x:t>
+    <x:t>N5Ua</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -436,7 +436,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>WjKc</x:t>
+    <x:t>GvGO</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_P46B</x:t>
@@ -448,7 +448,7 @@
     <x:t>OPTION "Trying dialogue here."</x:t>
   </x:si>
   <x:si>
-    <x:t>2S43</x:t>
+    <x:t>90Aj</x:t>
   </x:si>
   <x:si>
     <x:t>TTS</x:t>
@@ -472,7 +472,7 @@
     <x:t>OPTION "Trying dialogue with no line underneath."</x:t>
   </x:si>
   <x:si>
-    <x:t>FIr3</x:t>
+    <x:t>BLqx</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -485,7 +485,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>6LB7</x:t>
+    <x:t>Zyoh</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -500,7 +500,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>nWeU</x:t>
+    <x:t>mwR8</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -512,7 +512,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>QbbF</x:t>
+    <x:t>DiZp</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_41YM</x:t>
@@ -524,7 +524,7 @@
     <x:t>This is a conversation.</x:t>
   </x:si>
   <x:si>
-    <x:t>gIuP</x:t>
+    <x:t>tWdz</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_YTUY</x:t>
@@ -543,7 +543,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>G4Y4</x:t>
+    <x:t>vlAh</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_PACN</x:t>
@@ -562,7 +562,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>pIIa</x:t>
+    <x:t>O2sZ</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_9ZRB</x:t>
@@ -577,7 +577,7 @@
     <x:t>Anyway, cold in here isn't it.</x:t>
   </x:si>
   <x:si>
-    <x:t>lMC7</x:t>
+    <x:t>Klxp</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_6B6A</x:t>
@@ -595,7 +595,7 @@
     <x:t>I want to talk about the big room.</x:t>
   </x:si>
   <x:si>
-    <x:t>mmW9</x:t>
+    <x:t>JLYX</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_BigRoom_GPMN</x:t>
@@ -613,7 +613,7 @@
     <x:t>I want to talk about the small room.</x:t>
   </x:si>
   <x:si>
-    <x:t>29j9</x:t>
+    <x:t>43cO</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_SmallRoom_413C</x:t>
@@ -634,7 +634,7 @@
     <x:t>Any more questions?</x:t>
   </x:si>
   <x:si>
-    <x:t>ZFOg</x:t>
+    <x:t>ZNMU</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_UYYD</x:t>
@@ -647,7 +647,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>wRzh</x:t>
+    <x:t>tclJ</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_A048</x:t>
@@ -666,7 +666,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>ONsL</x:t>
+    <x:t>DWQB</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_Z1BD</x:t>
@@ -684,7 +684,7 @@
     <x:t>Is there something bigger?</x:t>
   </x:si>
   <x:si>
-    <x:t>w7KZ</x:t>
+    <x:t>DPh5</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Bigger_MFAH</x:t>
@@ -708,7 +708,7 @@
     <x:t>I am the colour of night.</x:t>
   </x:si>
   <x:si>
-    <x:t>LG5w</x:t>
+    <x:t>kukZ</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EPML</x:t>
@@ -723,7 +723,7 @@
     <x:t>Branch 1.</x:t>
   </x:si>
   <x:si>
-    <x:t>Ng2P</x:t>
+    <x:t>EDLn</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_IGPY</x:t>
@@ -732,7 +732,7 @@
     <x:t>Branch 2.</x:t>
   </x:si>
   <x:si>
-    <x:t>0ezk</x:t>
+    <x:t>VVAn</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_QCX4</x:t>
@@ -741,7 +741,7 @@
     <x:t>Branch 3.</x:t>
   </x:si>
   <x:si>
-    <x:t>NBfq</x:t>
+    <x:t>4xa0</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EEQU</x:t>
@@ -750,7 +750,7 @@
     <x:t>And we're back.</x:t>
   </x:si>
   <x:si>
-    <x:t>BTMW</x:t>
+    <x:t>wVpR</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/tests/test1/output/main-recording.xlsx
+++ b/tests/test1/output/main-recording.xlsx
@@ -65,7 +65,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>oKmf</x:t>
+    <x:t>DDSN</x:t>
   </x:si>
   <x:si>
     <x:t>Scratch</x:t>
@@ -120,7 +120,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>EWWw</x:t>
+    <x:t>5xr2</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -132,7 +132,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>fkRB</x:t>
+    <x:t>2wJ0</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -144,7 +144,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>jw60</x:t>
+    <x:t>DqGK</x:t>
   </x:si>
   <x:si>
     <x:t>vo:soft, vo:radio</x:t>
@@ -159,7 +159,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>n0GD</x:t>
+    <x:t>Wd4x</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -186,7 +186,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>ScZx</x:t>
+    <x:t>wIO9</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -198,7 +198,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>0HuQ</x:t>
+    <x:t>2sVi</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_7ZMT</x:t>
@@ -210,7 +210,7 @@
     <x:t>This is a recording line.</x:t>
   </x:si>
   <x:si>
-    <x:t>Fph3</x:t>
+    <x:t>FcUw</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartA_U9ZN</x:t>
@@ -222,7 +222,7 @@
     <x:t>This is a line hidden by a false clause.</x:t>
   </x:si>
   <x:si>
-    <x:t>5hE2</x:t>
+    <x:t>BXx4</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_VPX8</x:t>
@@ -237,7 +237,7 @@
     <x:t xml:space="preserve">(1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>5PeT</x:t>
+    <x:t>mbU7</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_FH4U</x:t>
@@ -246,7 +246,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>9a3L</x:t>
+    <x:t>BwlM</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_1RQS</x:t>
@@ -258,7 +258,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>wPIk</x:t>
+    <x:t>C1bZ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_JITN</x:t>
@@ -274,7 +274,7 @@
 (1/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>N2nj</x:t>
+    <x:t>KBWr</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_GUS9</x:t>
@@ -286,7 +286,7 @@
     <x:t xml:space="preserve">(2/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>OYCT</x:t>
+    <x:t>u6bN</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_3VZB</x:t>
@@ -298,7 +298,7 @@
     <x:t xml:space="preserve">(3/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>Rqfr</x:t>
+    <x:t>osUJ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_A18G</x:t>
@@ -310,7 +310,7 @@
     <x:t xml:space="preserve">(4/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>j2Eo</x:t>
+    <x:t>sqID</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_UC9D</x:t>
@@ -319,13 +319,13 @@
     <x:t>Recording_PartD</x:t>
   </x:si>
   <x:si>
-    <x:t>Vv9k</x:t>
+    <x:t>cXeC</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_08WO</x:t>
   </x:si>
   <x:si>
-    <x:t>EDuz</x:t>
+    <x:t>Slu0</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_81AO</x:t>
@@ -337,7 +337,7 @@
     <x:t>Goodbye!</x:t>
   </x:si>
   <x:si>
-    <x:t>17Dg</x:t>
+    <x:t>i9o8</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_JY1W</x:t>
@@ -346,7 +346,7 @@
     <x:t>Seeya!</x:t>
   </x:si>
   <x:si>
-    <x:t>1xIF</x:t>
+    <x:t>w5cl</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_QEM8</x:t>
@@ -355,7 +355,7 @@
     <x:t>Whoops!</x:t>
   </x:si>
   <x:si>
-    <x:t>bGx0</x:t>
+    <x:t>4mW6</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_KABN</x:t>
@@ -373,7 +373,7 @@
     <x:t>This is a scene.</x:t>
   </x:si>
   <x:si>
-    <x:t>ugeS</x:t>
+    <x:t>pV00</x:t>
   </x:si>
   <x:si>
     <x:t>Recorded</x:t>
@@ -394,7 +394,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>rMi4</x:t>
+    <x:t>cpYd</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -410,7 +410,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Iu8v</x:t>
+    <x:t>2veJ</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -423,7 +423,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>N5Ua</x:t>
+    <x:t>44Oa</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -436,7 +436,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>GvGO</x:t>
+    <x:t>MccZ</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_P46B</x:t>
@@ -448,7 +448,7 @@
     <x:t>OPTION "Trying dialogue here."</x:t>
   </x:si>
   <x:si>
-    <x:t>90Aj</x:t>
+    <x:t>NcRf</x:t>
   </x:si>
   <x:si>
     <x:t>TTS</x:t>
@@ -472,7 +472,7 @@
     <x:t>OPTION "Trying dialogue with no line underneath."</x:t>
   </x:si>
   <x:si>
-    <x:t>BLqx</x:t>
+    <x:t>DKhp</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -485,7 +485,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Zyoh</x:t>
+    <x:t>V1r2</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -500,7 +500,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>mwR8</x:t>
+    <x:t>loqZ</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -512,7 +512,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>DiZp</x:t>
+    <x:t>CrFU</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_41YM</x:t>
@@ -524,7 +524,7 @@
     <x:t>This is a conversation.</x:t>
   </x:si>
   <x:si>
-    <x:t>tWdz</x:t>
+    <x:t>nBk0</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_YTUY</x:t>
@@ -543,7 +543,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>vlAh</x:t>
+    <x:t>mr6c</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_PACN</x:t>
@@ -562,7 +562,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>O2sZ</x:t>
+    <x:t>YQ08</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_9ZRB</x:t>
@@ -577,7 +577,7 @@
     <x:t>Anyway, cold in here isn't it.</x:t>
   </x:si>
   <x:si>
-    <x:t>Klxp</x:t>
+    <x:t>Uakk</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_6B6A</x:t>
@@ -595,7 +595,7 @@
     <x:t>I want to talk about the big room.</x:t>
   </x:si>
   <x:si>
-    <x:t>JLYX</x:t>
+    <x:t>qbbd</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_BigRoom_GPMN</x:t>
@@ -613,7 +613,7 @@
     <x:t>I want to talk about the small room.</x:t>
   </x:si>
   <x:si>
-    <x:t>43cO</x:t>
+    <x:t>qF2Q</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_SmallRoom_413C</x:t>
@@ -634,7 +634,7 @@
     <x:t>Any more questions?</x:t>
   </x:si>
   <x:si>
-    <x:t>ZNMU</x:t>
+    <x:t>eQy2</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_UYYD</x:t>
@@ -647,7 +647,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>tclJ</x:t>
+    <x:t>O0Kh</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_A048</x:t>
@@ -666,7 +666,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>DWQB</x:t>
+    <x:t>FgqI</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_Z1BD</x:t>
@@ -684,7 +684,7 @@
     <x:t>Is there something bigger?</x:t>
   </x:si>
   <x:si>
-    <x:t>DPh5</x:t>
+    <x:t>2VlY</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Bigger_MFAH</x:t>
@@ -708,7 +708,7 @@
     <x:t>I am the colour of night.</x:t>
   </x:si>
   <x:si>
-    <x:t>kukZ</x:t>
+    <x:t>VJSX</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EPML</x:t>
@@ -723,7 +723,7 @@
     <x:t>Branch 1.</x:t>
   </x:si>
   <x:si>
-    <x:t>EDLn</x:t>
+    <x:t>NqZF</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_IGPY</x:t>
@@ -732,7 +732,7 @@
     <x:t>Branch 2.</x:t>
   </x:si>
   <x:si>
-    <x:t>VVAn</x:t>
+    <x:t>3tO3</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_QCX4</x:t>
@@ -741,7 +741,7 @@
     <x:t>Branch 3.</x:t>
   </x:si>
   <x:si>
-    <x:t>4xa0</x:t>
+    <x:t>4xU3</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EEQU</x:t>
@@ -750,7 +750,152 @@
     <x:t>And we're back.</x:t>
   </x:si>
   <x:si>
-    <x:t>wVpR</x:t>
+    <x:t>vb5K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_LineTest_65J9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cycles_LineTest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This should be fine.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>w49a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_LineTest_XFQW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>So should this.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rJya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_RR4G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cycles_FancyBarkTest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fancy Bark 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">How does the bracket (1/6) etc. work on this?
+(1/6) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>BnFD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_D4KV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fancy Bark 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(2/6) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>EHpN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_A2I1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fancy Bark 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(3/6) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>YC5M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_3KK1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fancy Bark 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(4/6) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>yiQu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_FF35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spinning on fancy bark 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(5/6) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cy34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_FancyBarkTest_23Q8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spinning on fancy bark 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(6/6) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1ewU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_StringExpressionsTest_1L9A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cycles_StringExpressionsTest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Huh.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(1/2) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ue0w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_StringExpressionsTest_ZHNZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Huh yourself.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(2/2) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mgbb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_ListExpressionTest_LUCG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cycles_ListExpressionTest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>List item 1.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T0pe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cycles_Cycles_ListExpressionTest_JXXD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>List item 2.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZidI</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -870,8 +1015,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J64" totalsRowShown="0">
-  <x:autoFilter ref="A1:J64"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J76" totalsRowShown="0">
+  <x:autoFilter ref="A1:J76"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="ID"/>
     <x:tableColumn id="2" name="BlockID"/>
@@ -1176,7 +1321,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J64"/>
+  <x:dimension ref="A1:J76"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -1185,8 +1330,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="11" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="34.585625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="19.960625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="39.210625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="26.585625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="11.210625" style="1" customWidth="1"/>
     <x:col min="4" max="4" width="35.710625" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="10.335625" style="1" customWidth="1"/>
@@ -3245,6 +3390,390 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
+    <x:row r="65" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A65" s="2" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="B65" s="2" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="C65" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D65" s="2" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="E65" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F65" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G65" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H65" s="2" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="I65" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J65" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A66" s="3" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="B66" s="3" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="C66" s="3" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D66" s="3" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="E66" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F66" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G66" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H66" s="3" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="I66" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J66" s="3" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
+      <x:c r="A67" s="2" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="B67" s="2" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C67" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D67" s="2" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="E67" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F67" s="5" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="G67" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H67" s="2" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="I67" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J67" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A68" s="3" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B68" s="3" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C68" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D68" s="3" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="E68" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F68" s="3" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="G68" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H68" s="3" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="I68" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J68" s="3" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A69" s="2" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C69" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D69" s="2" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="E69" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F69" s="2" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="G69" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H69" s="2" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="I69" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J69" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A70" s="3" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B70" s="3" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C70" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D70" s="3" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="E70" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F70" s="3" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="G70" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H70" s="3" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="I70" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J70" s="3" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A71" s="2" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="B71" s="2" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C71" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D71" s="2" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="E71" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F71" s="2" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="G71" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H71" s="2" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="I71" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J71" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A72" s="3" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="B72" s="3" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C72" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D72" s="3" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="E72" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F72" s="3" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="G72" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H72" s="3" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="I72" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J72" s="3" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A73" s="2" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="B73" s="2" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="C73" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D73" s="2" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="E73" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F73" s="2" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="G73" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H73" s="2" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="I73" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J73" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A74" s="3" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B74" s="3" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="C74" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D74" s="3" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="E74" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F74" s="3" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="G74" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H74" s="3" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="I74" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J74" s="3" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A75" s="2" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="B75" s="2" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="C75" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D75" s="2" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="E75" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F75" s="2" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="G75" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H75" s="2" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="I75" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J75" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A76" s="3" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="B76" s="3" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="C76" s="3" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D76" s="3" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="E76" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F76" s="3" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="G76" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H76" s="3" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="I76" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J76" s="3" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/tests/test1/output/main-recording.xlsx
+++ b/tests/test1/output/main-recording.xlsx
@@ -65,7 +65,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>DDSN</x:t>
+    <x:t>T3uc</x:t>
   </x:si>
   <x:si>
     <x:t>Scratch</x:t>
@@ -120,7 +120,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>5xr2</x:t>
+    <x:t>ft2A</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -132,7 +132,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>2wJ0</x:t>
+    <x:t>01qd</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -144,7 +144,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>DqGK</x:t>
+    <x:t>JgI1</x:t>
   </x:si>
   <x:si>
     <x:t>vo:soft, vo:radio</x:t>
@@ -159,7 +159,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>Wd4x</x:t>
+    <x:t>A6sB</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -186,7 +186,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>wIO9</x:t>
+    <x:t>NYfe</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -198,7 +198,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>2sVi</x:t>
+    <x:t>klkQ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_7ZMT</x:t>
@@ -210,7 +210,7 @@
     <x:t>This is a recording line.</x:t>
   </x:si>
   <x:si>
-    <x:t>FcUw</x:t>
+    <x:t>raQm</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartA_U9ZN</x:t>
@@ -222,7 +222,7 @@
     <x:t>This is a line hidden by a false clause.</x:t>
   </x:si>
   <x:si>
-    <x:t>BXx4</x:t>
+    <x:t>gN8p</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_VPX8</x:t>
@@ -237,7 +237,7 @@
     <x:t xml:space="preserve">(1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>mbU7</x:t>
+    <x:t>ow6Q</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_FH4U</x:t>
@@ -246,7 +246,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>BwlM</x:t>
+    <x:t>FPzC</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_1RQS</x:t>
@@ -258,7 +258,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>C1bZ</x:t>
+    <x:t>1uDu</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_JITN</x:t>
@@ -274,7 +274,7 @@
 (1/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>KBWr</x:t>
+    <x:t>9B2h</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_GUS9</x:t>
@@ -286,7 +286,7 @@
     <x:t xml:space="preserve">(2/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>u6bN</x:t>
+    <x:t>u4cY</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_3VZB</x:t>
@@ -298,7 +298,7 @@
     <x:t xml:space="preserve">(3/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>osUJ</x:t>
+    <x:t>uqeM</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_A18G</x:t>
@@ -310,7 +310,7 @@
     <x:t xml:space="preserve">(4/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>sqID</x:t>
+    <x:t>GoeX</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_UC9D</x:t>
@@ -319,13 +319,13 @@
     <x:t>Recording_PartD</x:t>
   </x:si>
   <x:si>
-    <x:t>cXeC</x:t>
+    <x:t>Khu3</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_08WO</x:t>
   </x:si>
   <x:si>
-    <x:t>Slu0</x:t>
+    <x:t>R7AU</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_81AO</x:t>
@@ -337,7 +337,7 @@
     <x:t>Goodbye!</x:t>
   </x:si>
   <x:si>
-    <x:t>i9o8</x:t>
+    <x:t>W6Zd</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_JY1W</x:t>
@@ -346,7 +346,7 @@
     <x:t>Seeya!</x:t>
   </x:si>
   <x:si>
-    <x:t>w5cl</x:t>
+    <x:t>gnYc</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_QEM8</x:t>
@@ -355,7 +355,7 @@
     <x:t>Whoops!</x:t>
   </x:si>
   <x:si>
-    <x:t>4mW6</x:t>
+    <x:t>jK4V</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_KABN</x:t>
@@ -373,7 +373,7 @@
     <x:t>This is a scene.</x:t>
   </x:si>
   <x:si>
-    <x:t>pV00</x:t>
+    <x:t>caEi</x:t>
   </x:si>
   <x:si>
     <x:t>Recorded</x:t>
@@ -394,7 +394,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>cpYd</x:t>
+    <x:t>KQK8</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -410,7 +410,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2veJ</x:t>
+    <x:t>g4xo</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -423,7 +423,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>44Oa</x:t>
+    <x:t>4HcB</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -436,7 +436,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>MccZ</x:t>
+    <x:t>qqC2</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_P46B</x:t>
@@ -448,7 +448,7 @@
     <x:t>OPTION "Trying dialogue here."</x:t>
   </x:si>
   <x:si>
-    <x:t>NcRf</x:t>
+    <x:t>4F7R</x:t>
   </x:si>
   <x:si>
     <x:t>TTS</x:t>
@@ -472,7 +472,7 @@
     <x:t>OPTION "Trying dialogue with no line underneath."</x:t>
   </x:si>
   <x:si>
-    <x:t>DKhp</x:t>
+    <x:t>CN6X</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -485,7 +485,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>V1r2</x:t>
+    <x:t>Tgl5</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -500,7 +500,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>loqZ</x:t>
+    <x:t>yUWm</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -512,7 +512,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>CrFU</x:t>
+    <x:t>fKPQ</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_41YM</x:t>
@@ -524,7 +524,7 @@
     <x:t>This is a conversation.</x:t>
   </x:si>
   <x:si>
-    <x:t>nBk0</x:t>
+    <x:t>HCeS</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_YTUY</x:t>
@@ -543,7 +543,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>mr6c</x:t>
+    <x:t>GuZL</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_PACN</x:t>
@@ -562,7 +562,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>YQ08</x:t>
+    <x:t>SCVF</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_9ZRB</x:t>
@@ -577,7 +577,7 @@
     <x:t>Anyway, cold in here isn't it.</x:t>
   </x:si>
   <x:si>
-    <x:t>Uakk</x:t>
+    <x:t>t5zw</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_6B6A</x:t>
@@ -595,7 +595,7 @@
     <x:t>I want to talk about the big room.</x:t>
   </x:si>
   <x:si>
-    <x:t>qbbd</x:t>
+    <x:t>Sxxm</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_BigRoom_GPMN</x:t>
@@ -613,7 +613,7 @@
     <x:t>I want to talk about the small room.</x:t>
   </x:si>
   <x:si>
-    <x:t>qF2Q</x:t>
+    <x:t>gNdd</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_SmallRoom_413C</x:t>
@@ -634,7 +634,7 @@
     <x:t>Any more questions?</x:t>
   </x:si>
   <x:si>
-    <x:t>eQy2</x:t>
+    <x:t>8val</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_UYYD</x:t>
@@ -647,7 +647,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>O0Kh</x:t>
+    <x:t>ww9m</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_A048</x:t>
@@ -666,7 +666,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>FgqI</x:t>
+    <x:t>awPQ</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_Z1BD</x:t>
@@ -684,7 +684,7 @@
     <x:t>Is there something bigger?</x:t>
   </x:si>
   <x:si>
-    <x:t>2VlY</x:t>
+    <x:t>1IAR</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Bigger_MFAH</x:t>
@@ -708,7 +708,7 @@
     <x:t>I am the colour of night.</x:t>
   </x:si>
   <x:si>
-    <x:t>VJSX</x:t>
+    <x:t>WGUu</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EPML</x:t>
@@ -723,7 +723,7 @@
     <x:t>Branch 1.</x:t>
   </x:si>
   <x:si>
-    <x:t>NqZF</x:t>
+    <x:t>39dd</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_IGPY</x:t>
@@ -732,7 +732,7 @@
     <x:t>Branch 2.</x:t>
   </x:si>
   <x:si>
-    <x:t>3tO3</x:t>
+    <x:t>OCyE</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_QCX4</x:t>
@@ -741,7 +741,7 @@
     <x:t>Branch 3.</x:t>
   </x:si>
   <x:si>
-    <x:t>4xU3</x:t>
+    <x:t>S1Hc</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EEQU</x:t>
@@ -750,7 +750,7 @@
     <x:t>And we're back.</x:t>
   </x:si>
   <x:si>
-    <x:t>vb5K</x:t>
+    <x:t>swXk</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_LineTest_65J9</x:t>
@@ -762,7 +762,7 @@
     <x:t>This should be fine.</x:t>
   </x:si>
   <x:si>
-    <x:t>w49a</x:t>
+    <x:t>JsLv</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_LineTest_XFQW</x:t>
@@ -771,7 +771,7 @@
     <x:t>So should this.</x:t>
   </x:si>
   <x:si>
-    <x:t>rJya</x:t>
+    <x:t>jgJ7</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_FancyBarkTest_RR4G</x:t>
@@ -787,7 +787,7 @@
 (1/6) </x:t>
   </x:si>
   <x:si>
-    <x:t>BnFD</x:t>
+    <x:t>xLT2</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_FancyBarkTest_D4KV</x:t>
@@ -799,7 +799,7 @@
     <x:t xml:space="preserve">(2/6) </x:t>
   </x:si>
   <x:si>
-    <x:t>EHpN</x:t>
+    <x:t>uJzC</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_FancyBarkTest_A2I1</x:t>
@@ -811,7 +811,7 @@
     <x:t xml:space="preserve">(3/6) </x:t>
   </x:si>
   <x:si>
-    <x:t>YC5M</x:t>
+    <x:t>znju</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_FancyBarkTest_3KK1</x:t>
@@ -823,7 +823,7 @@
     <x:t xml:space="preserve">(4/6) </x:t>
   </x:si>
   <x:si>
-    <x:t>yiQu</x:t>
+    <x:t>Q1Hl</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_FancyBarkTest_FF35</x:t>
@@ -835,7 +835,7 @@
     <x:t xml:space="preserve">(5/6) </x:t>
   </x:si>
   <x:si>
-    <x:t>Cy34</x:t>
+    <x:t>osaF</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_FancyBarkTest_23Q8</x:t>
@@ -847,7 +847,7 @@
     <x:t xml:space="preserve">(6/6) </x:t>
   </x:si>
   <x:si>
-    <x:t>1ewU</x:t>
+    <x:t>IdhR</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_StringExpressionsTest_1L9A</x:t>
@@ -862,7 +862,7 @@
     <x:t xml:space="preserve">(1/2) </x:t>
   </x:si>
   <x:si>
-    <x:t>ue0w</x:t>
+    <x:t>gbvI</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_StringExpressionsTest_ZHNZ</x:t>
@@ -874,7 +874,7 @@
     <x:t xml:space="preserve">(2/2) </x:t>
   </x:si>
   <x:si>
-    <x:t>Mgbb</x:t>
+    <x:t>LpXa</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_ListExpressionTest_LUCG</x:t>
@@ -886,7 +886,7 @@
     <x:t>List item 1.</x:t>
   </x:si>
   <x:si>
-    <x:t>T0pe</x:t>
+    <x:t>iv40</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_ListExpressionTest_JXXD</x:t>
@@ -895,7 +895,7 @@
     <x:t>List item 2.</x:t>
   </x:si>
   <x:si>
-    <x:t>ZidI</x:t>
+    <x:t>nTV5</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/tests/test1/output/main-recording.xlsx
+++ b/tests/test1/output/main-recording.xlsx
@@ -65,7 +65,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>T3uc</x:t>
+    <x:t>DcXJn7</x:t>
   </x:si>
   <x:si>
     <x:t>Scratch</x:t>
@@ -105,6 +105,15 @@
   </x:si>
   <x:si>
     <x:t>vo:loud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_Q099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Same snippet?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TTS</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_O037</x:t>
@@ -120,7 +129,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>ft2A</x:t>
+    <x:t>YbAtbT</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -132,7 +141,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>01qd</x:t>
+    <x:t>n9Hdx8</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -144,7 +153,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>JgI1</x:t>
+    <x:t>AtvCxv</x:t>
   </x:si>
   <x:si>
     <x:t>vo:soft, vo:radio</x:t>
@@ -159,7 +168,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>A6sB</x:t>
+    <x:t>SjDWmc</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -186,7 +195,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>NYfe</x:t>
+    <x:t>qPNp7O</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -198,7 +207,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>klkQ</x:t>
+    <x:t>BQbpzL</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_7ZMT</x:t>
@@ -210,7 +219,7 @@
     <x:t>This is a recording line.</x:t>
   </x:si>
   <x:si>
-    <x:t>raQm</x:t>
+    <x:t>cfYMVv</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartA_U9ZN</x:t>
@@ -222,7 +231,7 @@
     <x:t>This is a line hidden by a false clause.</x:t>
   </x:si>
   <x:si>
-    <x:t>gN8p</x:t>
+    <x:t>NGHH0Y</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_VPX8</x:t>
@@ -237,7 +246,7 @@
     <x:t xml:space="preserve">(1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>ow6Q</x:t>
+    <x:t>MhRVDG</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartB_FH4U</x:t>
@@ -246,9 +255,6 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>FPzC</x:t>
-  </x:si>
-  <x:si>
     <x:t>main_Recording_PartB_1RQS</x:t>
   </x:si>
   <x:si>
@@ -258,7 +264,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>1uDu</x:t>
+    <x:t>Irth7D</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_JITN</x:t>
@@ -274,7 +280,7 @@
 (1/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>9B2h</x:t>
+    <x:t>7pt5oj</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_GUS9</x:t>
@@ -286,7 +292,7 @@
     <x:t xml:space="preserve">(2/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>u4cY</x:t>
+    <x:t>4n1el0</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_3VZB</x:t>
@@ -298,7 +304,7 @@
     <x:t xml:space="preserve">(3/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>uqeM</x:t>
+    <x:t>HPVFdk</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartC_A18G</x:t>
@@ -310,7 +316,7 @@
     <x:t xml:space="preserve">(4/4) </x:t>
   </x:si>
   <x:si>
-    <x:t>GoeX</x:t>
+    <x:t>AuAlXt</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartD_UC9D</x:t>
@@ -319,15 +325,9 @@
     <x:t>Recording_PartD</x:t>
   </x:si>
   <x:si>
-    <x:t>Khu3</x:t>
-  </x:si>
-  <x:si>
     <x:t>main_Recording_PartD_08WO</x:t>
   </x:si>
   <x:si>
-    <x:t>R7AU</x:t>
-  </x:si>
-  <x:si>
     <x:t>main_Recording_PartE_81AO</x:t>
   </x:si>
   <x:si>
@@ -337,7 +337,7 @@
     <x:t>Goodbye!</x:t>
   </x:si>
   <x:si>
-    <x:t>W6Zd</x:t>
+    <x:t>rCvkq1</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_JY1W</x:t>
@@ -346,7 +346,7 @@
     <x:t>Seeya!</x:t>
   </x:si>
   <x:si>
-    <x:t>gnYc</x:t>
+    <x:t>ZpWChy</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_QEM8</x:t>
@@ -355,7 +355,7 @@
     <x:t>Whoops!</x:t>
   </x:si>
   <x:si>
-    <x:t>jK4V</x:t>
+    <x:t>ToNnOp</x:t>
   </x:si>
   <x:si>
     <x:t>main_Recording_PartE_KABN</x:t>
@@ -373,7 +373,7 @@
     <x:t>This is a scene.</x:t>
   </x:si>
   <x:si>
-    <x:t>caEi</x:t>
+    <x:t>pyxKyD</x:t>
   </x:si>
   <x:si>
     <x:t>Recorded</x:t>
@@ -394,7 +394,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>KQK8</x:t>
+    <x:t>kRZMEF</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -410,7 +410,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>g4xo</x:t>
+    <x:t>KMCIfN</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -423,7 +423,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>4HcB</x:t>
+    <x:t>p56XeW</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -436,7 +436,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>qqC2</x:t>
+    <x:t>IkrPq2</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_P46B</x:t>
@@ -448,10 +448,7 @@
     <x:t>OPTION "Trying dialogue here."</x:t>
   </x:si>
   <x:si>
-    <x:t>4F7R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TTS</x:t>
+    <x:t>3AunqC</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_4NZN</x:t>
@@ -472,7 +469,7 @@
     <x:t>OPTION "Trying dialogue with no line underneath."</x:t>
   </x:si>
   <x:si>
-    <x:t>CN6X</x:t>
+    <x:t>GnYubW</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -485,7 +482,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Tgl5</x:t>
+    <x:t>lTztHz</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -500,7 +497,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>yUWm</x:t>
+    <x:t>0pCnXe</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -512,7 +509,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>fKPQ</x:t>
+    <x:t>GBmTaQ</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_41YM</x:t>
@@ -524,7 +521,7 @@
     <x:t>This is a conversation.</x:t>
   </x:si>
   <x:si>
-    <x:t>HCeS</x:t>
+    <x:t>dk3O0w</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_YTUY</x:t>
@@ -543,7 +540,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>GuZL</x:t>
+    <x:t>uFaXwm</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_PACN</x:t>
@@ -562,7 +559,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>SCVF</x:t>
+    <x:t>pYRajN</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_9ZRB</x:t>
@@ -577,7 +574,7 @@
     <x:t>Anyway, cold in here isn't it.</x:t>
   </x:si>
   <x:si>
-    <x:t>t5zw</x:t>
+    <x:t>GQebyR</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_6B6A</x:t>
@@ -595,7 +592,7 @@
     <x:t>I want to talk about the big room.</x:t>
   </x:si>
   <x:si>
-    <x:t>Sxxm</x:t>
+    <x:t>x1iXgZ</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_BigRoom_GPMN</x:t>
@@ -613,7 +610,7 @@
     <x:t>I want to talk about the small room.</x:t>
   </x:si>
   <x:si>
-    <x:t>gNdd</x:t>
+    <x:t>dgvQOm</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_SmallRoom_413C</x:t>
@@ -634,7 +631,7 @@
     <x:t>Any more questions?</x:t>
   </x:si>
   <x:si>
-    <x:t>8val</x:t>
+    <x:t>UJvAoQ</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_UYYD</x:t>
@@ -647,7 +644,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>ww9m</x:t>
+    <x:t>vlBlAU</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_A048</x:t>
@@ -666,7 +663,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>awPQ</x:t>
+    <x:t>Kig2s3</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Hub_Z1BD</x:t>
@@ -684,7 +681,7 @@
     <x:t>Is there something bigger?</x:t>
   </x:si>
   <x:si>
-    <x:t>1IAR</x:t>
+    <x:t>d9XbuJ</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Branches_Bigger_MFAH</x:t>
@@ -708,7 +705,7 @@
     <x:t>I am the colour of night.</x:t>
   </x:si>
   <x:si>
-    <x:t>WGUu</x:t>
+    <x:t>w6DskM</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EPML</x:t>
@@ -723,7 +720,7 @@
     <x:t>Branch 1.</x:t>
   </x:si>
   <x:si>
-    <x:t>39dd</x:t>
+    <x:t>hId7os</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_IGPY</x:t>
@@ -732,7 +729,7 @@
     <x:t>Branch 2.</x:t>
   </x:si>
   <x:si>
-    <x:t>OCyE</x:t>
+    <x:t>DEqYcN</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_QCX4</x:t>
@@ -741,7 +738,7 @@
     <x:t>Branch 3.</x:t>
   </x:si>
   <x:si>
-    <x:t>S1Hc</x:t>
+    <x:t>F67MvY</x:t>
   </x:si>
   <x:si>
     <x:t>branches_Flow_EEQU</x:t>
@@ -750,7 +747,7 @@
     <x:t>And we're back.</x:t>
   </x:si>
   <x:si>
-    <x:t>swXk</x:t>
+    <x:t>XMe8Yg</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_LineTest_65J9</x:t>
@@ -762,7 +759,7 @@
     <x:t>This should be fine.</x:t>
   </x:si>
   <x:si>
-    <x:t>JsLv</x:t>
+    <x:t>fPR28A</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_LineTest_XFQW</x:t>
@@ -771,7 +768,7 @@
     <x:t>So should this.</x:t>
   </x:si>
   <x:si>
-    <x:t>jgJ7</x:t>
+    <x:t>NFZtLa</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_FancyBarkTest_RR4G</x:t>
@@ -787,7 +784,7 @@
 (1/6) </x:t>
   </x:si>
   <x:si>
-    <x:t>xLT2</x:t>
+    <x:t>QoMAuS</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_FancyBarkTest_D4KV</x:t>
@@ -799,7 +796,7 @@
     <x:t xml:space="preserve">(2/6) </x:t>
   </x:si>
   <x:si>
-    <x:t>uJzC</x:t>
+    <x:t>M41CsX</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_FancyBarkTest_A2I1</x:t>
@@ -811,7 +808,7 @@
     <x:t xml:space="preserve">(3/6) </x:t>
   </x:si>
   <x:si>
-    <x:t>znju</x:t>
+    <x:t>3BI240</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_FancyBarkTest_3KK1</x:t>
@@ -823,7 +820,7 @@
     <x:t xml:space="preserve">(4/6) </x:t>
   </x:si>
   <x:si>
-    <x:t>Q1Hl</x:t>
+    <x:t>gpdpT7</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_FancyBarkTest_FF35</x:t>
@@ -835,7 +832,7 @@
     <x:t xml:space="preserve">(5/6) </x:t>
   </x:si>
   <x:si>
-    <x:t>osaF</x:t>
+    <x:t>GhDefe</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_FancyBarkTest_23Q8</x:t>
@@ -847,7 +844,7 @@
     <x:t xml:space="preserve">(6/6) </x:t>
   </x:si>
   <x:si>
-    <x:t>IdhR</x:t>
+    <x:t>Ljnv1v</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_StringExpressionsTest_1L9A</x:t>
@@ -862,7 +859,7 @@
     <x:t xml:space="preserve">(1/2) </x:t>
   </x:si>
   <x:si>
-    <x:t>gbvI</x:t>
+    <x:t>7SH3NU</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_StringExpressionsTest_ZHNZ</x:t>
@@ -874,7 +871,7 @@
     <x:t xml:space="preserve">(2/2) </x:t>
   </x:si>
   <x:si>
-    <x:t>LpXa</x:t>
+    <x:t>s8dQAS</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_ListExpressionTest_LUCG</x:t>
@@ -886,7 +883,7 @@
     <x:t>List item 1.</x:t>
   </x:si>
   <x:si>
-    <x:t>iv40</x:t>
+    <x:t>wFUAyC</x:t>
   </x:si>
   <x:si>
     <x:t>cycles_Cycles_ListExpressionTest_JXXD</x:t>
@@ -895,7 +892,7 @@
     <x:t>List item 2.</x:t>
   </x:si>
   <x:si>
-    <x:t>nTV5</x:t>
+    <x:t>XKyYbA</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1015,8 +1012,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J76" totalsRowShown="0">
-  <x:autoFilter ref="A1:J76"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J77" totalsRowShown="0">
+  <x:autoFilter ref="A1:J77"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="ID"/>
     <x:tableColumn id="2" name="BlockID"/>
@@ -1321,7 +1318,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J76"/>
+  <x:dimension ref="A1:J77"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -1502,158 +1499,158 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:10" ht="27" customHeight="1" s="3" customFormat="1">
-      <x:c r="A6" s="3" t="s">
+    <x:row r="6" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A6" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B6" s="3" t="s">
+      <x:c r="B6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C6" s="3" t="s">
+      <x:c r="E6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J6" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:10" ht="27" customHeight="1" s="3" customFormat="1">
+      <x:c r="A7" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F6" s="6" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G6" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H6" s="3" t="s">
+      <x:c r="D7" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F7" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J7" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A8" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="I6" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J6" s="3" t="s">
+      <x:c r="C8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I8" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J8" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A7" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
+    <x:row r="9" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A9" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E7" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F7" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G7" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H7" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="I7" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J7" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A8" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E8" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F8" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G8" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="I8" s="3" t="s">
+      <x:c r="D9" s="3" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="J8" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="E9" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F9" s="3" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
+      <x:c r="G9" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H9" s="3" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="E9" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F9" s="2" t="s">
+      <x:c r="I9" s="3" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="G9" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H9" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="I9" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J9" s="2" t="s">
+      <x:c r="J9" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A10" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="E10" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
+      <x:c r="G10" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H10" s="2" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="E10" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F10" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G10" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H10" s="2" t="s">
-        <x:v>47</x:v>
       </x:c>
       <x:c r="I10" s="2" t="s">
         <x:v>14</x:v>
@@ -1662,195 +1659,195 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A11" s="3" t="s">
+    <x:row r="11" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A11" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s">
+      <x:c r="D11" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G11" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H11" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I11" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J11" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A12" s="3" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B12" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D11" s="3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E11" s="3" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F11" s="3" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G11" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H11" s="3" t="s">
+      <x:c r="D12" s="3" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="I11" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J11" s="3" t="s">
+      <x:c r="E12" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F12" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G12" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H12" s="3" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I12" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J12" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A12" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B12" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="s">
+    <x:row r="13" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A13" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E12" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F12" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="G12" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H12" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="I12" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J12" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E13" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G13" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H13" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I13" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J13" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A13" s="3" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="B13" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C13" s="3" t="s">
+    <x:row r="14" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A14" s="3" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B14" s="3" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C14" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D13" s="3" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E13" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F13" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G13" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H13" s="3" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="I13" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J13" s="3" t="s">
+      <x:c r="D14" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E14" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F14" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G14" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H14" s="3" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I14" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J14" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A14" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B14" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E14" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F14" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G14" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H14" s="2" t="s">
+    <x:row r="15" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A15" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="I14" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J14" s="2" t="s">
+      <x:c r="B15" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E15" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G15" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H15" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I15" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J15" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A15" s="3" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="B15" s="3" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C15" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D15" s="3" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="E15" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F15" s="3" t="s">
+    <x:row r="16" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A16" s="3" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="G15" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H15" s="3" t="s">
+      <x:c r="B16" s="3" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="I15" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J15" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A16" s="2" t="s">
+      <x:c r="C16" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D16" s="3" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="E16" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s">
+      <x:c r="E16" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F16" s="3" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="G16" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H16" s="2" t="s">
+      <x:c r="G16" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H16" s="3" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="I16" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J16" s="2" t="s">
+      <x:c r="I16" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J16" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
@@ -1859,25 +1856,25 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E17" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F17" s="3" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="E17" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F17" s="3" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="G17" s="3" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H17" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I17" s="3" t="s">
         <x:v>14</x:v>
@@ -1886,30 +1883,30 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
+    <x:row r="18" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A18" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F18" s="5" t="s">
-        <x:v>84</x:v>
+      <x:c r="F18" s="2" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G18" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H18" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I18" s="2" t="s">
         <x:v>14</x:v>
@@ -1918,30 +1915,30 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+    <x:row r="19" spans="1:10" ht="27" customHeight="1" s="3" customFormat="1">
       <x:c r="A19" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D19" s="3" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E19" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F19" s="6" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G19" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H19" s="3" t="s">
         <x:v>87</x:v>
-      </x:c>
-      <x:c r="E19" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F19" s="3" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="G19" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H19" s="3" t="s">
-        <x:v>89</x:v>
       </x:c>
       <x:c r="I19" s="3" t="s">
         <x:v>14</x:v>
@@ -1952,28 +1949,28 @@
     </x:row>
     <x:row r="20" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A20" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E20" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G20" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H20" s="2" t="s">
         <x:v>91</x:v>
-      </x:c>
-      <x:c r="E20" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="G20" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H20" s="2" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="I20" s="2" t="s">
         <x:v>14</x:v>
@@ -1984,28 +1981,28 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A21" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D21" s="3" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E21" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F21" s="3" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G21" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H21" s="3" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="E21" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F21" s="3" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="G21" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H21" s="3" t="s">
-        <x:v>97</x:v>
       </x:c>
       <x:c r="I21" s="3" t="s">
         <x:v>14</x:v>
@@ -2016,28 +2013,28 @@
     </x:row>
     <x:row r="22" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A22" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E22" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="B22" s="2" t="s">
+      <x:c r="G22" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H22" s="2" t="s">
         <x:v>99</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="E22" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G22" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H22" s="2" t="s">
-        <x:v>100</x:v>
       </x:c>
       <x:c r="I22" s="2" t="s">
         <x:v>14</x:v>
@@ -2048,16 +2045,16 @@
     </x:row>
     <x:row r="23" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A23" s="3" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B23" s="3" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="B23" s="3" t="s">
-        <x:v>99</x:v>
-      </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D23" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E23" s="3" t="s">
         <x:v>14</x:v>
@@ -2069,7 +2066,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H23" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I23" s="3" t="s">
         <x:v>14</x:v>
@@ -2080,28 +2077,28 @@
     </x:row>
     <x:row r="24" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A24" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E24" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G24" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H24" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I24" s="2" t="s">
         <x:v>14</x:v>
@@ -2112,7 +2109,7 @@
     </x:row>
     <x:row r="25" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A25" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
         <x:v>104</x:v>
@@ -2121,7 +2118,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D25" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E25" s="3" t="s">
         <x:v>14</x:v>
@@ -2133,7 +2130,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H25" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I25" s="3" t="s">
         <x:v>14</x:v>
@@ -2144,7 +2141,7 @@
     </x:row>
     <x:row r="26" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A26" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
         <x:v>104</x:v>
@@ -2153,19 +2150,19 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E26" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G26" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H26" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I26" s="2" t="s">
         <x:v>14</x:v>
@@ -2174,85 +2171,85 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A27" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
+    <x:row r="27" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A27" s="3" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B27" s="3" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="E27" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G27" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H27" s="2" t="s">
+      <x:c r="C27" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D27" s="3" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E27" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F27" s="3" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G27" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H27" s="3" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="I27" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J27" s="2" t="s">
+      <x:c r="I27" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J27" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A28" s="3" t="s">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D28" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E28" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F28" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G28" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H28" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I28" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J28" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A29" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E29" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s">
         <x:v>14</x:v>
@@ -2261,7 +2258,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H29" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I29" s="2" t="s">
         <x:v>14</x:v>
@@ -2272,28 +2269,28 @@
     </x:row>
     <x:row r="30" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A30" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D30" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E30" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F30" s="6" t="s">
-        <x:v>129</x:v>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F30" s="3" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G30" s="3" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H30" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I30" s="3" t="s">
         <x:v>14</x:v>
@@ -2304,7 +2301,7 @@
     </x:row>
     <x:row r="31" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A31" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
         <x:v>127</x:v>
@@ -2313,19 +2310,19 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E31" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F31" s="5" t="s">
-        <x:v>133</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G31" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H31" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I31" s="2" t="s">
         <x:v>14</x:v>
@@ -2336,7 +2333,7 @@
     </x:row>
     <x:row r="32" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A32" s="3" t="s">
-        <x:v>135</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B32" s="3" t="s">
         <x:v>127</x:v>
@@ -2345,19 +2342,19 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D32" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E32" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F32" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G32" s="3" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H32" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I32" s="3" t="s">
         <x:v>14</x:v>
@@ -2368,7 +2365,7 @@
     </x:row>
     <x:row r="33" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A33" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
         <x:v>127</x:v>
@@ -2377,147 +2374,147 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E33" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F33" s="5" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="G33" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H33" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="I33" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J33" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A34" s="3" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B34" s="3" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C34" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D34" s="3" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="E33" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s">
+      <x:c r="E34" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F34" s="3" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="G33" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H33" s="2" t="s">
+      <x:c r="G34" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H34" s="3" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="I33" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J33" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A34" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="E34" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G34" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H34" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="I34" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J34" s="2" t="s">
-        <x:v>143</x:v>
+      <x:c r="I34" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J34" s="3" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A35" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B35" s="3" t="s">
         <x:v>127</x:v>
       </x:c>
       <x:c r="C35" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D35" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E35" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F35" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G35" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H35" s="3" t="s">
-        <x:v>150</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I35" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J35" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A36" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
         <x:v>127</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E36" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F36" s="5" t="s">
-        <x:v>153</x:v>
+      <x:c r="F36" s="2" t="s">
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G36" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H36" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I36" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J36" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A37" s="3" t="s">
-        <x:v>155</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B37" s="3" t="s">
-        <x:v>156</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C37" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D37" s="3" t="s">
-        <x:v>157</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E37" s="3" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="F37" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F37" s="6" t="s">
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G37" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H37" s="3" t="s">
-        <x:v>159</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I37" s="3" t="s">
         <x:v>14</x:v>
@@ -2528,28 +2525,28 @@
     </x:row>
     <x:row r="38" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A38" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E38" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G38" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H38" s="2" t="s">
         <x:v>158</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G38" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H38" s="2" t="s">
-        <x:v>163</x:v>
       </x:c>
       <x:c r="I38" s="2" t="s">
         <x:v>14</x:v>
@@ -2560,220 +2557,220 @@
     </x:row>
     <x:row r="39" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A39" s="3" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B39" s="3" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C39" s="3" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D39" s="3" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E39" s="3" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="F39" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G39" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H39" s="3" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="I39" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J39" s="3" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A40" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="B39" s="3" t="s">
+      <x:c r="C40" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="C39" s="3" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D39" s="3" t="s">
+      <x:c r="E40" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G40" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H40" s="2" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="E39" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F39" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G39" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H39" s="3" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="I39" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J39" s="3" t="s">
+      <x:c r="I40" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J40" s="2" t="s">
         <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A40" s="3" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="B40" s="3" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="C40" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D40" s="3" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="E40" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F40" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G40" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H40" s="3" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="I40" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J40" s="3" t="s">
-        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A41" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="E41" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G41" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H41" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="I41" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J41" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A42" s="3" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B42" s="3" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C42" s="3" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D42" s="3" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
+      <x:c r="E42" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F42" s="6" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="E41" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F41" s="5" t="s">
+      <x:c r="G42" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H42" s="3" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="G41" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H41" s="2" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="I41" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J41" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A42" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="E42" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G42" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H42" s="2" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="I42" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J42" s="2" t="s">
-        <x:v>143</x:v>
+      <x:c r="I42" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J42" s="3" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A43" s="3" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B43" s="3" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C43" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D43" s="3" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E43" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F43" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G43" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H43" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="I43" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J43" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A44" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="B43" s="3" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="C43" s="3" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D43" s="3" t="s">
+      <x:c r="E44" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F44" s="5" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="E43" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F43" s="6" t="s">
+      <x:c r="G44" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H44" s="2" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="G43" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H43" s="3" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="I43" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J43" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A44" s="3" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="B44" s="3" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="C44" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D44" s="3" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="E44" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F44" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G44" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H44" s="3" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="I44" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J44" s="3" t="s">
+      <x:c r="I44" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J44" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A45" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E45" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F45" s="5" t="s">
-        <x:v>153</x:v>
+      <x:c r="F45" s="2" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G45" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H45" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="I45" s="2" t="s">
         <x:v>14</x:v>
@@ -2782,181 +2779,181 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A46" s="2" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="E46" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F46" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G46" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H46" s="2" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="I46" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J46" s="2" t="s">
+    <x:row r="46" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A46" s="3" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B46" s="3" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C46" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D46" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="E46" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F46" s="6" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G46" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H46" s="3" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="I46" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J46" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A47" s="3" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B47" s="3" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C47" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D47" s="3" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="E47" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F47" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G47" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H47" s="3" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="I47" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J47" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A48" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="B47" s="3" t="s">
+      <x:c r="C48" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="C47" s="3" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D47" s="3" t="s">
+      <x:c r="E48" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G48" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H48" s="2" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="E47" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F47" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G47" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H47" s="3" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="I47" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J47" s="3" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A48" s="3" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="B48" s="3" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="C48" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D48" s="3" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="E48" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F48" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G48" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H48" s="3" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="I48" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J48" s="3" t="s">
-        <x:v>143</x:v>
+      <x:c r="I48" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J48" s="2" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A49" s="2" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="E49" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G49" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H49" s="2" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="I49" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J49" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A50" s="3" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B50" s="3" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="B49" s="2" t="s">
+      <x:c r="C50" s="3" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D50" s="3" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
+      <x:c r="E50" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F50" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G50" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H50" s="3" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="E49" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F49" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G49" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H49" s="2" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="I49" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J49" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A50" s="2" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="B50" s="2" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="C50" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="E50" s="2" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="F50" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G50" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H50" s="2" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="I50" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J50" s="2" t="s">
-        <x:v>143</x:v>
+      <x:c r="I50" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J50" s="3" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A51" s="3" t="s">
-        <x:v>200</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B51" s="3" t="s">
-        <x:v>201</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C51" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D51" s="3" t="s">
-        <x:v>202</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E51" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F51" s="3" t="s">
         <x:v>14</x:v>
@@ -2965,327 +2962,327 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="3" t="s">
-        <x:v>203</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="I51" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J51" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A52" s="2" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E52" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G52" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H52" s="2" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="I52" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J52" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A53" s="3" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B53" s="3" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C53" s="3" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D53" s="3" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="B52" s="2" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="C52" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D52" s="2" t="s">
+      <x:c r="E53" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F53" s="6" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="E52" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F52" s="5" t="s">
+      <x:c r="G53" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H53" s="3" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="G52" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H52" s="2" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="I52" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J52" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A53" s="2" t="s">
-        <x:v>208</x:v>
-      </x:c>
-      <x:c r="B53" s="2" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="C53" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D53" s="2" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="E53" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F53" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G53" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H53" s="2" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="I53" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J53" s="2" t="s">
-        <x:v>143</x:v>
+      <x:c r="I53" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J53" s="3" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A54" s="3" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B54" s="3" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C54" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D54" s="3" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="E54" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F54" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G54" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H54" s="3" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="I54" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J54" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A55" s="2" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D55" s="2" t="s">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="B54" s="3" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="C54" s="3" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D54" s="3" t="s">
+      <x:c r="E55" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F55" s="5" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="E54" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F54" s="6" t="s">
+      <x:c r="G55" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H55" s="2" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="G54" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H54" s="3" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="I54" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J54" s="3" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A55" s="3" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="B55" s="3" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="C55" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D55" s="3" t="s">
-        <x:v>215</x:v>
-      </x:c>
-      <x:c r="E55" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F55" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G55" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H55" s="3" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="I55" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J55" s="3" t="s">
-        <x:v>143</x:v>
+      <x:c r="I55" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J55" s="2" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A56" s="2" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D56" s="2" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="E56" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F56" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G56" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H56" s="2" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="I56" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J56" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A57" s="3" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B57" s="3" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="B56" s="2" t="s">
+      <x:c r="C57" s="3" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D57" s="3" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="C56" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D56" s="2" t="s">
+      <x:c r="E57" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F57" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G57" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H57" s="3" t="s">
         <x:v>218</x:v>
       </x:c>
-      <x:c r="E56" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F56" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G56" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H56" s="2" t="s">
+      <x:c r="I57" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J57" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A58" s="3" t="s">
         <x:v>219</x:v>
       </x:c>
-      <x:c r="I56" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J56" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A57" s="2" t="s">
+      <x:c r="B58" s="3" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="C58" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D58" s="3" t="s">
         <x:v>220</x:v>
       </x:c>
-      <x:c r="B57" s="2" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="C57" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D57" s="2" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="E57" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F57" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G57" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H57" s="2" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="I57" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J57" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A58" s="2" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="B58" s="2" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="C58" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D58" s="2" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="E58" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F58" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G58" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H58" s="2" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="I58" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J58" s="2" t="s">
-        <x:v>143</x:v>
+      <x:c r="E58" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F58" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G58" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H58" s="3" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="I58" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J58" s="3" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A59" s="3" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B59" s="3" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="C59" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D59" s="3" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="E59" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F59" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G59" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H59" s="3" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="I59" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J59" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A60" s="2" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="B59" s="3" t="s">
+      <x:c r="C60" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D60" s="2" t="s">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="C59" s="3" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D59" s="3" t="s">
+      <x:c r="E60" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F60" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G60" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H60" s="2" t="s">
         <x:v>226</x:v>
       </x:c>
-      <x:c r="E59" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F59" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G59" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H59" s="3" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="I59" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J59" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A60" s="3" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="B60" s="3" t="s">
-        <x:v>225</x:v>
-      </x:c>
-      <x:c r="C60" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D60" s="3" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="E60" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F60" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G60" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H60" s="3" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="I60" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J60" s="3" t="s">
+      <x:c r="I60" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J60" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A61" s="2" t="s">
-        <x:v>230</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B61" s="2" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C61" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D61" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E61" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G61" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H61" s="2" t="s">
-        <x:v>232</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="I61" s="2" t="s">
         <x:v>14</x:v>
@@ -3296,16 +3293,16 @@
     </x:row>
     <x:row r="62" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A62" s="3" t="s">
-        <x:v>233</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B62" s="3" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C62" s="3" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="D62" s="3" t="s">
-        <x:v>234</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E62" s="3" t="s">
         <x:v>14</x:v>
@@ -3317,7 +3314,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H62" s="3" t="s">
-        <x:v>235</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="I62" s="3" t="s">
         <x:v>14</x:v>
@@ -3328,28 +3325,28 @@
     </x:row>
     <x:row r="63" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A63" s="2" t="s">
-        <x:v>236</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B63" s="2" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C63" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="D63" s="2" t="s">
-        <x:v>237</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E63" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G63" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H63" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I63" s="2" t="s">
         <x:v>14</x:v>
@@ -3360,28 +3357,28 @@
     </x:row>
     <x:row r="64" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A64" s="3" t="s">
-        <x:v>239</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B64" s="3" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C64" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D64" s="3" t="s">
-        <x:v>240</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E64" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F64" s="6" t="s">
-        <x:v>153</x:v>
+      <x:c r="F64" s="3" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G64" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H64" s="3" t="s">
-        <x:v>241</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="I64" s="3" t="s">
         <x:v>14</x:v>
@@ -3392,386 +3389,418 @@
     </x:row>
     <x:row r="65" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A65" s="2" t="s">
-        <x:v>242</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B65" s="2" t="s">
-        <x:v>243</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C65" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D65" s="2" t="s">
-        <x:v>244</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E65" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F65" s="2" t="s">
-        <x:v>14</x:v>
+      <x:c r="F65" s="5" t="s">
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G65" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H65" s="2" t="s">
-        <x:v>245</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="I65" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J65" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A66" s="3" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B66" s="3" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="C66" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D66" s="3" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="E66" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F66" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G66" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H66" s="3" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="I66" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J66" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A67" s="2" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B67" s="2" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="C67" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D67" s="2" t="s">
         <x:v>246</x:v>
       </x:c>
-      <x:c r="B66" s="3" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="C66" s="3" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="D66" s="3" t="s">
+      <x:c r="E67" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F67" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G67" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H67" s="2" t="s">
         <x:v>247</x:v>
       </x:c>
-      <x:c r="E66" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F66" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G66" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H66" s="3" t="s">
+      <x:c r="I67" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J67" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:10" ht="27" customHeight="1" s="3" customFormat="1">
+      <x:c r="A68" s="3" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="I66" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J66" s="3" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
-      <x:c r="A67" s="2" t="s">
+      <x:c r="B68" s="3" t="s">
         <x:v>249</x:v>
-      </x:c>
-      <x:c r="B67" s="2" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="C67" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D67" s="2" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="E67" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F67" s="5" t="s">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="G67" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H67" s="2" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="I67" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J67" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A68" s="3" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="B68" s="3" t="s">
-        <x:v>250</x:v>
       </x:c>
       <x:c r="C68" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D68" s="3" t="s">
-        <x:v>255</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E68" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F68" s="3" t="s">
-        <x:v>256</x:v>
+      <x:c r="F68" s="6" t="s">
+        <x:v>251</x:v>
       </x:c>
       <x:c r="G68" s="3" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H68" s="3" t="s">
-        <x:v>257</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="I68" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J68" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A69" s="2" t="s">
-        <x:v>258</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B69" s="2" t="s">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C69" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D69" s="2" t="s">
-        <x:v>259</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E69" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s">
-        <x:v>260</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="G69" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H69" s="2" t="s">
-        <x:v>261</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="I69" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J69" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A70" s="3" t="s">
-        <x:v>262</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B70" s="3" t="s">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C70" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D70" s="3" t="s">
-        <x:v>263</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E70" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F70" s="3" t="s">
-        <x:v>264</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="G70" s="3" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H70" s="3" t="s">
-        <x:v>265</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="I70" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J70" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A71" s="2" t="s">
-        <x:v>266</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B71" s="2" t="s">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C71" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s">
-        <x:v>267</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E71" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s">
-        <x:v>268</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G71" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H71" s="2" t="s">
-        <x:v>269</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="I71" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J71" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A72" s="3" t="s">
-        <x:v>270</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B72" s="3" t="s">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C72" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D72" s="3" t="s">
-        <x:v>271</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E72" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F72" s="3" t="s">
-        <x:v>272</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="G72" s="3" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H72" s="3" t="s">
-        <x:v>273</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="I72" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J72" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A73" s="2" t="s">
-        <x:v>274</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B73" s="2" t="s">
-        <x:v>275</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C73" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D73" s="2" t="s">
-        <x:v>276</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="E73" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F73" s="2" t="s">
-        <x:v>277</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="G73" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H73" s="2" t="s">
-        <x:v>278</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="I73" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J73" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A74" s="3" t="s">
-        <x:v>279</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B74" s="3" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="C74" s="3" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D74" s="3" t="s">
         <x:v>275</x:v>
       </x:c>
-      <x:c r="C74" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D74" s="3" t="s">
-        <x:v>280</x:v>
-      </x:c>
       <x:c r="E74" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F74" s="3" t="s">
-        <x:v>281</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G74" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H74" s="3" t="s">
-        <x:v>282</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="I74" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J74" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A75" s="2" t="s">
-        <x:v>283</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B75" s="2" t="s">
-        <x:v>284</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C75" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D75" s="2" t="s">
-        <x:v>285</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="E75" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F75" s="2" t="s">
-        <x:v>277</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="G75" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H75" s="2" t="s">
-        <x:v>286</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="I75" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J75" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A76" s="3" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="B76" s="3" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="C76" s="3" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D76" s="3" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="E76" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F76" s="3" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="G76" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H76" s="3" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="I76" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J76" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A77" s="2" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="B77" s="2" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="C77" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D77" s="2" t="s">
         <x:v>287</x:v>
       </x:c>
-      <x:c r="B76" s="3" t="s">
-        <x:v>284</x:v>
-      </x:c>
-      <x:c r="C76" s="3" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="D76" s="3" t="s">
+      <x:c r="E77" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F77" s="2" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="G77" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H77" s="2" t="s">
         <x:v>288</x:v>
       </x:c>
-      <x:c r="E76" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F76" s="3" t="s">
-        <x:v>281</x:v>
-      </x:c>
-      <x:c r="G76" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H76" s="3" t="s">
-        <x:v>289</x:v>
-      </x:c>
-      <x:c r="I76" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J76" s="3" t="s">
-        <x:v>143</x:v>
+      <x:c r="I77" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J77" s="2" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
